--- a/test/output/data_consist_properties_2016.xlsx
+++ b/test/output/data_consist_properties_2016.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>column</t>
   </si>
@@ -221,8 +221,8 @@
     <t>sample_value</t>
   </si>
   <si>
-    <t>11425604
-11941987</t>
+    <t>11879036
+12439304</t>
   </si>
   <si>
     <t>nan_rate</t>
@@ -251,8 +251,8 @@
     <t>overlap rate</t>
   </si>
   <si>
-    <t>60376704.031
-60374008.001</t>
+    <t>60590757.032
+60371066.482</t>
   </si>
   <si>
     <t>0.004
@@ -263,8 +263,8 @@
 99513/2982285</t>
   </si>
   <si>
-    <t>6.0375418013e+13
-6.0378003324e+13</t>
+    <t>6.0372220023e+13
+6.0379200422e+13</t>
   </si>
   <si>
     <t>0.025
@@ -278,16 +278,16 @@
     <t>consistency check</t>
   </si>
   <si>
-    <t>min diff%</t>
-  </si>
-  <si>
-    <t>mean diff%</t>
-  </si>
-  <si>
-    <t>median diff%</t>
-  </si>
-  <si>
-    <t>max diff%</t>
+    <t>min diff</t>
+  </si>
+  <si>
+    <t>mean diff</t>
+  </si>
+  <si>
+    <t>median diff</t>
+  </si>
+  <si>
+    <t>max diff</t>
   </si>
   <si>
     <t>diff_combo</t>
@@ -320,90 +320,63 @@
     <t>9.0 -&gt; nan</t>
   </si>
   <si>
-    <t>3.0 -&gt; 4.0</t>
+    <t>7.0 -&gt; 6.0</t>
+  </si>
+  <si>
+    <t>4.0 -&gt; 8.0</t>
+  </si>
+  <si>
+    <t>7.0 -&gt; 4.0</t>
+  </si>
+  <si>
+    <t>4.0 -&gt; 7.0</t>
+  </si>
+  <si>
+    <t>7.0 -&gt; 5.0</t>
+  </si>
+  <si>
+    <t>10.0 -&gt; 11.0</t>
+  </si>
+  <si>
+    <t>7.0 -&gt; 3.0</t>
   </si>
   <si>
     <t>nan -&gt; 4.0</t>
   </si>
   <si>
-    <t>4.0 -&gt; nan</t>
-  </si>
-  <si>
-    <t>nan -&gt; 3.0</t>
-  </si>
-  <si>
-    <t>4.0 -&gt; 3.0</t>
-  </si>
-  <si>
-    <t>5.0 -&gt; 4.0</t>
-  </si>
-  <si>
-    <t>3.0 -&gt; nan</t>
+    <t>7.0 -&gt; nan</t>
+  </si>
+  <si>
+    <t>nan -&gt; 6037.0</t>
+  </si>
+  <si>
+    <t>nan -&gt; 6059.0</t>
+  </si>
+  <si>
+    <t>6037.0 -&gt; nan</t>
+  </si>
+  <si>
+    <t>nan -&gt; 6111.0</t>
+  </si>
+  <si>
+    <t>6059.0 -&gt; nan</t>
+  </si>
+  <si>
+    <t>6111.0 -&gt; nan</t>
+  </si>
+  <si>
+    <t>True -&gt; nan</t>
+  </si>
+  <si>
+    <t>nan -&gt; True</t>
+  </si>
+  <si>
+    <t>nan -&gt; 7.0</t>
   </si>
   <si>
     <t>nan -&gt; 2.0</t>
   </si>
   <si>
-    <t>nan -&gt; 5.0</t>
-  </si>
-  <si>
-    <t>7.0 -&gt; 6.0</t>
-  </si>
-  <si>
-    <t>4.0 -&gt; 8.0</t>
-  </si>
-  <si>
-    <t>7.0 -&gt; 4.0</t>
-  </si>
-  <si>
-    <t>4.0 -&gt; 7.0</t>
-  </si>
-  <si>
-    <t>7.0 -&gt; 5.0</t>
-  </si>
-  <si>
-    <t>10.0 -&gt; 11.0</t>
-  </si>
-  <si>
-    <t>7.0 -&gt; 3.0</t>
-  </si>
-  <si>
-    <t>7.0 -&gt; nan</t>
-  </si>
-  <si>
-    <t>nan -&gt; 66.0</t>
-  </si>
-  <si>
-    <t>66.0 -&gt; nan</t>
-  </si>
-  <si>
-    <t>nan -&gt; 6037.0</t>
-  </si>
-  <si>
-    <t>nan -&gt; 6059.0</t>
-  </si>
-  <si>
-    <t>6037.0 -&gt; nan</t>
-  </si>
-  <si>
-    <t>nan -&gt; 6111.0</t>
-  </si>
-  <si>
-    <t>6059.0 -&gt; nan</t>
-  </si>
-  <si>
-    <t>6111.0 -&gt; nan</t>
-  </si>
-  <si>
-    <t>True -&gt; nan</t>
-  </si>
-  <si>
-    <t>nan -&gt; True</t>
-  </si>
-  <si>
-    <t>nan -&gt; 7.0</t>
-  </si>
-  <si>
     <t>nan -&gt; 20.0</t>
   </si>
   <si>
@@ -660,12 +633,6 @@
   </si>
   <si>
     <t>2014.0 -&gt; 2016.0</t>
-  </si>
-  <si>
-    <t>nan -&gt; Y</t>
-  </si>
-  <si>
-    <t>Y -&gt; nan</t>
   </si>
 </sst>
 </file>
@@ -2056,8 +2023,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="42"/>
-    <col customWidth="1" max="2" min="2" width="10.5"/>
-    <col customWidth="1" max="3" min="3" width="7.5"/>
+    <col customWidth="1" max="2" min="2" width="30"/>
+    <col customWidth="1" max="3" min="3" width="30"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="25" r="0" spans="1:3"/>
@@ -2091,7 +2058,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.992</v>
+        <v>0.998</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="4" spans="1:3">
@@ -2146,7 +2113,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.963</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="9" spans="1:3">
@@ -2157,7 +2124,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.007</v>
+        <v>0.354</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="10" spans="1:3">
@@ -2179,7 +2146,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0.983</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="12" spans="1:3">
@@ -2322,7 +2289,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.696</v>
+        <v>0.993</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="25" spans="1:3">
@@ -2333,7 +2300,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.966</v>
+        <v>0.979</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="26" spans="1:3">
@@ -2399,7 +2366,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.451</v>
+        <v>0.993</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="32" spans="1:3">
@@ -2410,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="33" spans="1:3">
@@ -2421,7 +2388,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.956</v>
+        <v>0.993</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="34" spans="1:3">
@@ -2454,7 +2421,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.996</v>
+        <v>0.997</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="37" spans="1:3">
@@ -2498,7 +2465,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.997</v>
+        <v>0.999</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="41" spans="1:3">
@@ -2531,7 +2498,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="44" spans="1:3">
@@ -2685,7 +2652,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="58" spans="1:3">
@@ -2729,7 +2696,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="21"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
     <col customWidth="1" max="2" min="2" width="49.5"/>
     <col customWidth="1" max="3" min="3" width="90"/>
   </cols>
@@ -3003,7 +2970,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="18"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
     <col customWidth="1" max="2" min="2" width="42"/>
     <col customWidth="1" max="3" min="3" width="90"/>
   </cols>
@@ -3099,7 +3066,7 @@
         <v>83</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-100</v>
+        <v>-8</v>
       </c>
       <c r="C10" s="10" t="n"/>
     </row>
@@ -3108,7 +3075,7 @@
         <v>84</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.078</v>
+        <v>0.007</v>
       </c>
       <c r="C11" s="10" t="n"/>
     </row>
@@ -3126,7 +3093,7 @@
         <v>86</v>
       </c>
       <c r="B13" s="12" t="n">
-        <v>1100</v>
+        <v>32</v>
       </c>
       <c r="C13" s="13" t="n"/>
     </row>
@@ -3162,7 +3129,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-100</v>
+        <v>-8</v>
       </c>
       <c r="C17" s="10" t="n"/>
     </row>
@@ -3171,7 +3138,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.034</v>
+        <v>0.007</v>
       </c>
       <c r="C18" s="10" t="n"/>
     </row>
@@ -3189,7 +3156,7 @@
         <v>86</v>
       </c>
       <c r="B20" s="12" t="n">
-        <v>900</v>
+        <v>25</v>
       </c>
       <c r="C20" s="13" t="n"/>
     </row>
@@ -3225,7 +3192,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-86.667</v>
+        <v>-7</v>
       </c>
       <c r="C24" s="10" t="n"/>
     </row>
@@ -3234,7 +3201,7 @@
         <v>84</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.077</v>
+        <v>0.001</v>
       </c>
       <c r="C25" s="10" t="n"/>
     </row>
@@ -3252,7 +3219,7 @@
         <v>86</v>
       </c>
       <c r="B27" s="12" t="n">
-        <v>1100</v>
+        <v>11</v>
       </c>
       <c r="C27" s="13" t="n"/>
     </row>
@@ -3288,7 +3255,7 @@
         <v>83</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-99.911</v>
+        <v>-2226</v>
       </c>
       <c r="C31" s="10" t="n"/>
     </row>
@@ -3297,7 +3264,7 @@
         <v>84</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-0.048</v>
+        <v>-0.885</v>
       </c>
       <c r="C32" s="10" t="n"/>
     </row>
@@ -3351,7 +3318,7 @@
         <v>83</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-91.23399999999999</v>
+        <v>-8659</v>
       </c>
       <c r="C38" s="10" t="n"/>
     </row>
@@ -3360,7 +3327,7 @@
         <v>84</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.065</v>
+        <v>1.392</v>
       </c>
       <c r="C39" s="10" t="n"/>
     </row>
@@ -3378,7 +3345,7 @@
         <v>86</v>
       </c>
       <c r="B41" s="12" t="n">
-        <v>2175.918</v>
+        <v>331871</v>
       </c>
       <c r="C41" s="13" t="n"/>
     </row>
@@ -3414,7 +3381,7 @@
         <v>83</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-91.23399999999999</v>
+        <v>-8659</v>
       </c>
       <c r="C45" s="10" t="n"/>
     </row>
@@ -3423,7 +3390,7 @@
         <v>84</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0.047</v>
+        <v>0.859</v>
       </c>
       <c r="C46" s="10" t="n"/>
     </row>
@@ -3441,7 +3408,7 @@
         <v>86</v>
       </c>
       <c r="B48" s="12" t="n">
-        <v>1115.625</v>
+        <v>150000</v>
       </c>
       <c r="C48" s="13" t="n"/>
     </row>
@@ -3540,7 +3507,7 @@
         <v>83</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-71.795</v>
+        <v>-3815</v>
       </c>
       <c r="C59" s="10" t="n"/>
     </row>
@@ -3549,7 +3516,7 @@
         <v>84</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>0.062</v>
+        <v>5.542</v>
       </c>
       <c r="C60" s="10" t="n"/>
     </row>
@@ -3567,7 +3534,7 @@
         <v>86</v>
       </c>
       <c r="B62" s="12" t="n">
-        <v>2175.918</v>
+        <v>331871</v>
       </c>
       <c r="C62" s="13" t="n"/>
     </row>
@@ -3612,7 +3579,7 @@
         <v>84</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>0.181</v>
+        <v>3.109</v>
       </c>
       <c r="C67" s="10" t="n"/>
     </row>
@@ -3630,7 +3597,7 @@
         <v>86</v>
       </c>
       <c r="B69" s="12" t="n">
-        <v>1209.524</v>
+        <v>16220</v>
       </c>
       <c r="C69" s="13" t="n"/>
     </row>
@@ -3666,7 +3633,7 @@
         <v>83</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-77.057</v>
+        <v>-2689</v>
       </c>
       <c r="C73" s="10" t="n"/>
     </row>
@@ -3675,7 +3642,7 @@
         <v>84</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-0.002</v>
+        <v>-0.235</v>
       </c>
       <c r="C74" s="10" t="n"/>
     </row>
@@ -3693,7 +3660,7 @@
         <v>86</v>
       </c>
       <c r="B76" s="12" t="n">
-        <v>146.212</v>
+        <v>772</v>
       </c>
       <c r="C76" s="13" t="n"/>
     </row>
@@ -3729,7 +3696,7 @@
         <v>83</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-66.667</v>
+        <v>-2</v>
       </c>
       <c r="C80" s="10" t="n"/>
     </row>
@@ -3738,7 +3705,7 @@
         <v>84</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="C81" s="10" t="n"/>
     </row>
@@ -3756,7 +3723,7 @@
         <v>86</v>
       </c>
       <c r="B83" s="12" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="C83" s="13" t="n"/>
     </row>
@@ -3792,7 +3759,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-87.5</v>
+        <v>-7</v>
       </c>
       <c r="C87" s="10" t="n"/>
     </row>
@@ -3801,7 +3768,7 @@
         <v>84</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>0.079</v>
+        <v>0.001</v>
       </c>
       <c r="C88" s="10" t="n"/>
     </row>
@@ -3819,7 +3786,7 @@
         <v>86</v>
       </c>
       <c r="B90" s="12" t="n">
-        <v>1100</v>
+        <v>11</v>
       </c>
       <c r="C90" s="13" t="n"/>
     </row>
@@ -3855,7 +3822,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-100</v>
+        <v>-4</v>
       </c>
       <c r="C94" s="10" t="n"/>
     </row>
@@ -3864,7 +3831,7 @@
         <v>84</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>0.021</v>
+        <v>0.001</v>
       </c>
       <c r="C95" s="10" t="n"/>
     </row>
@@ -3882,7 +3849,7 @@
         <v>86</v>
       </c>
       <c r="B97" s="12" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="C97" s="13" t="n"/>
     </row>
@@ -3918,7 +3885,7 @@
         <v>83</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-100</v>
+        <v>-1542</v>
       </c>
       <c r="C101" s="10" t="n"/>
     </row>
@@ -3927,7 +3894,7 @@
         <v>84</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>0.019</v>
+        <v>0.306</v>
       </c>
       <c r="C102" s="10" t="n"/>
     </row>
@@ -3945,7 +3912,7 @@
         <v>86</v>
       </c>
       <c r="B104" s="12" t="n">
-        <v>2105.263</v>
+        <v>2888</v>
       </c>
       <c r="C104" s="13" t="n"/>
     </row>
@@ -4044,7 +4011,7 @@
         <v>83</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C115" s="10" t="n"/>
     </row>
@@ -4062,7 +4029,7 @@
         <v>85</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C117" s="10" t="n"/>
     </row>
@@ -4071,7 +4038,7 @@
         <v>86</v>
       </c>
       <c r="B118" s="12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C118" s="13" t="n"/>
     </row>
@@ -4107,7 +4074,7 @@
         <v>83</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-99.998</v>
+        <v>-328256272</v>
       </c>
       <c r="C122" s="10" t="n"/>
     </row>
@@ -4116,7 +4083,7 @@
         <v>84</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>0.015</v>
+        <v>-332.392</v>
       </c>
       <c r="C123" s="10" t="n"/>
     </row>
@@ -4134,7 +4101,7 @@
         <v>86</v>
       </c>
       <c r="B125" s="12" t="n">
-        <v>10145.098</v>
+        <v>4621266</v>
       </c>
       <c r="C125" s="13" t="n"/>
     </row>
@@ -4296,7 +4263,7 @@
         <v>83</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-85.714</v>
+        <v>-12</v>
       </c>
       <c r="C143" s="10" t="n"/>
     </row>
@@ -4305,7 +4272,7 @@
         <v>84</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>0.016</v>
+        <v>0.002</v>
       </c>
       <c r="C144" s="10" t="n"/>
     </row>
@@ -4323,7 +4290,7 @@
         <v>86</v>
       </c>
       <c r="B146" s="12" t="n">
-        <v>500</v>
+        <v>17</v>
       </c>
       <c r="C146" s="13" t="n"/>
     </row>
@@ -4359,7 +4326,7 @@
         <v>83</v>
       </c>
       <c r="B150" s="3" t="n">
-        <v>-50</v>
+        <v>-1</v>
       </c>
       <c r="C150" s="10" t="n"/>
     </row>
@@ -4368,7 +4335,7 @@
         <v>84</v>
       </c>
       <c r="B151" s="3" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="C151" s="10" t="n"/>
     </row>
@@ -4386,7 +4353,7 @@
         <v>86</v>
       </c>
       <c r="B153" s="12" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C153" s="13" t="n"/>
     </row>
@@ -4422,7 +4389,7 @@
         <v>83</v>
       </c>
       <c r="B157" s="3" t="n">
-        <v>-95</v>
+        <v>-19</v>
       </c>
       <c r="C157" s="10" t="n"/>
     </row>
@@ -4431,7 +4398,7 @@
         <v>84</v>
       </c>
       <c r="B158" s="3" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="C158" s="10" t="n"/>
     </row>
@@ -4449,7 +4416,7 @@
         <v>86</v>
       </c>
       <c r="B160" s="12" t="n">
-        <v>11233.333</v>
+        <v>337</v>
       </c>
       <c r="C160" s="13" t="n"/>
     </row>
@@ -4494,7 +4461,7 @@
         <v>84</v>
       </c>
       <c r="B165" s="3" t="n">
-        <v>0.86</v>
+        <v>2.113</v>
       </c>
       <c r="C165" s="10" t="n"/>
     </row>
@@ -4512,7 +4479,7 @@
         <v>86</v>
       </c>
       <c r="B167" s="12" t="n">
-        <v>7190.909</v>
+        <v>2311</v>
       </c>
       <c r="C167" s="13" t="n"/>
     </row>
@@ -4611,7 +4578,7 @@
         <v>83</v>
       </c>
       <c r="B178" s="3" t="n">
-        <v>-75</v>
+        <v>-3</v>
       </c>
       <c r="C178" s="10" t="n"/>
     </row>
@@ -4620,7 +4587,7 @@
         <v>84</v>
       </c>
       <c r="B179" s="3" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="C179" s="10" t="n"/>
     </row>
@@ -4638,7 +4605,7 @@
         <v>86</v>
       </c>
       <c r="B181" s="12" t="n">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="C181" s="13" t="n"/>
     </row>
@@ -4674,7 +4641,7 @@
         <v>83</v>
       </c>
       <c r="B185" s="3" t="n">
-        <v>-99.992</v>
+        <v>-69496662</v>
       </c>
       <c r="C185" s="10" t="n"/>
     </row>
@@ -4683,7 +4650,7 @@
         <v>84</v>
       </c>
       <c r="B186" s="3" t="n">
-        <v>8.922000000000001</v>
+        <v>6260.971</v>
       </c>
       <c r="C186" s="10" t="n"/>
     </row>
@@ -4692,7 +4659,7 @@
         <v>85</v>
       </c>
       <c r="B187" s="3" t="n">
-        <v>1.525</v>
+        <v>1897</v>
       </c>
       <c r="C187" s="10" t="n"/>
     </row>
@@ -4701,7 +4668,7 @@
         <v>86</v>
       </c>
       <c r="B188" s="12" t="n">
-        <v>1199900</v>
+        <v>150100000</v>
       </c>
       <c r="C188" s="13" t="n"/>
     </row>
@@ -4737,7 +4704,7 @@
         <v>83</v>
       </c>
       <c r="B192" s="3" t="n">
-        <v>-100</v>
+        <v>-69475171</v>
       </c>
       <c r="C192" s="10" t="n"/>
     </row>
@@ -4746,7 +4713,7 @@
         <v>84</v>
       </c>
       <c r="B193" s="3" t="n">
-        <v>24.078</v>
+        <v>21650.771</v>
       </c>
       <c r="C193" s="10" t="n"/>
     </row>
@@ -4755,7 +4722,7 @@
         <v>85</v>
       </c>
       <c r="B194" s="3" t="n">
-        <v>1.525</v>
+        <v>4732</v>
       </c>
       <c r="C194" s="10" t="n"/>
     </row>
@@ -4764,7 +4731,7 @@
         <v>86</v>
       </c>
       <c r="B195" s="12" t="n">
-        <v>29111011.111</v>
+        <v>151104082</v>
       </c>
       <c r="C195" s="13" t="n"/>
     </row>
@@ -4800,7 +4767,7 @@
         <v>83</v>
       </c>
       <c r="B199" s="3" t="n">
-        <v>-99.995</v>
+        <v>-7192206</v>
       </c>
       <c r="C199" s="10" t="n"/>
     </row>
@@ -4809,7 +4776,7 @@
         <v>84</v>
       </c>
       <c r="B200" s="3" t="n">
-        <v>29.751</v>
+        <v>15264.364</v>
       </c>
       <c r="C200" s="10" t="n"/>
     </row>
@@ -4818,7 +4785,7 @@
         <v>85</v>
       </c>
       <c r="B201" s="3" t="n">
-        <v>1.525</v>
+        <v>2533</v>
       </c>
       <c r="C201" s="10" t="n"/>
     </row>
@@ -4827,7 +4794,7 @@
         <v>86</v>
       </c>
       <c r="B202" s="12" t="n">
-        <v>29111011.111</v>
+        <v>55138070</v>
       </c>
       <c r="C202" s="13" t="n"/>
     </row>
@@ -4863,7 +4830,7 @@
         <v>83</v>
       </c>
       <c r="B206" s="3" t="n">
-        <v>-99.77200000000001</v>
+        <v>-285449.72</v>
       </c>
       <c r="C206" s="10" t="n"/>
     </row>
@@ -4872,7 +4839,7 @@
         <v>84</v>
       </c>
       <c r="B207" s="3" t="n">
-        <v>0.614</v>
+        <v>13.512</v>
       </c>
       <c r="C207" s="10" t="n"/>
     </row>
@@ -4890,7 +4857,7 @@
         <v>86</v>
       </c>
       <c r="B209" s="12" t="n">
-        <v>15213.147</v>
+        <v>1725368.14</v>
       </c>
       <c r="C209" s="13" t="n"/>
     </row>
@@ -5007,7 +4974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B230"/>
+  <dimension ref="A1:B208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5015,7 +4982,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="24"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
     <col customWidth="1" max="2" min="2" width="37.5"/>
   </cols>
   <sheetData>
@@ -5033,7 +5000,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="n">
-        <v>0.992</v>
+        <v>0.998</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="3" spans="1:2">
@@ -5141,371 +5108,367 @@
       </c>
     </row>
     <row customHeight="1" ht="25" r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="15" t="n">
-        <v>0.963</v>
+      <c r="B17" s="18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="18" spans="1:2">
-      <c r="A18" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>88</v>
-      </c>
+      <c r="A18" s="14" t="s"/>
+      <c r="B18" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="15" t="n">
-        <v>188</v>
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B20" s="15" t="n">
-        <v>109</v>
+        <v>0.354</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="15" t="n">
-        <v>54</v>
+      <c r="A21" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B22" s="15" t="n">
-        <v>41</v>
+        <v>561332</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B23" s="15" t="n">
-        <v>26</v>
+        <v>501868</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" s="15" t="n">
-        <v>19</v>
+        <v>444825</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B25" s="15" t="n">
-        <v>8</v>
+        <v>189021</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" s="15" t="n">
-        <v>8</v>
+        <v>106901</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="27" spans="1:2">
       <c r="A27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="15" t="n">
+        <v>69212</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="28" spans="1:2">
+      <c r="A28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="15" t="n">
+        <v>28479</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="29" spans="1:2">
+      <c r="A29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="15" t="n">
+        <v>17800</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="30" spans="1:2">
+      <c r="A30" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="28" spans="1:2">
-      <c r="A28" s="11" t="s">
+      <c r="B30" s="15" t="n">
+        <v>2907</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="31" spans="1:2">
+      <c r="A31" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="29" spans="1:2">
-      <c r="A29" s="14" t="s"/>
-      <c r="B29" s="14" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
+      <c r="B31" s="18" t="n">
+        <v>1481</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="32" spans="1:2">
+      <c r="A32" s="14" t="s"/>
+      <c r="B32" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="34" spans="1:2">
+      <c r="A34" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="15" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="32" spans="1:2">
-      <c r="A32" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="33" spans="1:2">
-      <c r="A33" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="15" t="n">
-        <v>561332</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="34" spans="1:2">
-      <c r="A34" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="15" t="n">
-        <v>501868</v>
+      <c r="B34" s="18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="35" spans="1:2">
-      <c r="A35" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="15" t="n">
-        <v>444825</v>
-      </c>
+      <c r="A35" s="14" t="s"/>
+      <c r="B35" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="36" spans="1:2">
-      <c r="A36" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="15" t="n">
-        <v>189021</v>
+      <c r="A36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="37" spans="1:2">
       <c r="A37" s="8" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="B37" s="15" t="n">
-        <v>106901</v>
+        <v>0.995</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="38" spans="1:2">
-      <c r="A38" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="15" t="n">
-        <v>69212</v>
+      <c r="A38" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="39" spans="1:2">
       <c r="A39" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B39" s="15" t="n">
-        <v>28479</v>
+        <v>6000</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="40" spans="1:2">
       <c r="A40" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B40" s="15" t="n">
-        <v>17800</v>
+        <v>4480</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="41" spans="1:2">
       <c r="A41" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B41" s="15" t="n">
-        <v>2907</v>
+        <v>2621</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="42" spans="1:2">
-      <c r="A42" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="18" t="n">
-        <v>1481</v>
+      <c r="A42" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="15" t="n">
+        <v>957</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="43" spans="1:2">
-      <c r="A43" s="14" t="s"/>
-      <c r="B43" s="14" t="n"/>
+      <c r="A43" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="15" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>15</v>
+      <c r="A44" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="18" t="n">
+        <v>66</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="45" spans="1:2">
-      <c r="A45" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="15" t="n">
-        <v>0.983</v>
-      </c>
+      <c r="A45" s="14" t="s"/>
+      <c r="B45" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="46" spans="1:2">
-      <c r="A46" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>88</v>
+      <c r="A46" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="47" spans="1:2">
       <c r="A47" s="8" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="B47" s="15" t="n">
-        <v>285</v>
+        <v>0.993</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="48" spans="1:2">
-      <c r="A48" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="18" t="n">
-        <v>2</v>
+      <c r="A48" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="49" spans="1:2">
-      <c r="A49" s="14" t="s"/>
-      <c r="B49" s="14" t="n"/>
+      <c r="A49" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="15" t="n">
+        <v>20148</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="50" spans="1:2">
-      <c r="A50" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>23</v>
+      <c r="A50" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="18" t="n">
+        <v>1196</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="51" spans="1:2">
-      <c r="A51" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="15" t="n">
-        <v>0.995</v>
-      </c>
+      <c r="A51" s="14" t="s"/>
+      <c r="B51" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="52" spans="1:2">
-      <c r="A52" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>88</v>
+      <c r="A52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="53" spans="1:2">
       <c r="A53" s="8" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="B53" s="15" t="n">
-        <v>6000</v>
+        <v>0.979</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="54" spans="1:2">
-      <c r="A54" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="15" t="n">
-        <v>4480</v>
+      <c r="A54" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="55" spans="1:2">
       <c r="A55" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B55" s="15" t="n">
-        <v>2621</v>
+        <v>50932</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="56" spans="1:2">
       <c r="A56" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B56" s="15" t="n">
-        <v>957</v>
+        <v>11980</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="57" spans="1:2">
       <c r="A57" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B57" s="15" t="n">
-        <v>245</v>
+        <v>412</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="58" spans="1:2">
-      <c r="A58" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="18" t="n">
-        <v>66</v>
+      <c r="A58" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="15" t="n">
+        <v>356</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="59" spans="1:2">
-      <c r="A59" s="14" t="s"/>
-      <c r="B59" s="14" t="n"/>
+      <c r="A59" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="15" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="60" spans="1:2">
-      <c r="A60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>28</v>
+      <c r="A60" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="15" t="n">
+        <v>166</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="61" spans="1:2">
       <c r="A61" s="8" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="B61" s="15" t="n">
-        <v>0.696</v>
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="62" spans="1:2">
-      <c r="A62" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>88</v>
+      <c r="A62" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="63" spans="1:2">
       <c r="A63" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" s="15" t="n">
-        <v>20148</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="64" spans="1:2">
       <c r="A64" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B64" s="18" t="n">
-        <v>1196</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="65" spans="1:2">
@@ -5517,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="67" spans="1:2">
@@ -5525,7 +5488,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="15" t="n">
-        <v>0.966</v>
+        <v>0.993</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="68" spans="1:2">
@@ -5538,622 +5501,618 @@
     </row>
     <row customHeight="1" ht="25" r="69" spans="1:2">
       <c r="A69" s="8" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="B69" s="15" t="n">
-        <v>50932</v>
+        <v>20169</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="70" spans="1:2">
-      <c r="A70" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="15" t="n">
-        <v>11980</v>
+      <c r="A70" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="18" t="n">
+        <v>236</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="71" spans="1:2">
-      <c r="A71" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B71" s="15" t="n">
-        <v>412</v>
-      </c>
+      <c r="A71" s="14" t="s"/>
+      <c r="B71" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="72" spans="1:2">
-      <c r="A72" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" s="15" t="n">
-        <v>356</v>
+      <c r="A72" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="73" spans="1:2">
-      <c r="A73" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" s="15" t="n">
-        <v>205</v>
+      <c r="A73" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="74" spans="1:2">
-      <c r="A74" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="15" t="n">
-        <v>166</v>
-      </c>
+      <c r="A74" s="14" t="s"/>
+      <c r="B74" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="75" spans="1:2">
-      <c r="A75" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="15" t="n">
-        <v>7</v>
+      <c r="A75" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="76" spans="1:2">
       <c r="A76" s="8" t="s">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="B76" s="15" t="n">
-        <v>3</v>
+        <v>0.993</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="77" spans="1:2">
-      <c r="A77" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B77" s="15" t="n">
-        <v>1</v>
+      <c r="A77" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="78" spans="1:2">
-      <c r="A78" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B78" s="18" t="n">
-        <v>1</v>
+      <c r="A78" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="15" t="n">
+        <v>21395</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="79" spans="1:2">
-      <c r="A79" s="14" t="s"/>
-      <c r="B79" s="14" t="n"/>
+      <c r="A79" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="18" t="n">
+        <v>959</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="80" spans="1:2">
-      <c r="A80" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A80" s="14" t="s"/>
+      <c r="B80" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="81" spans="1:2">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="82" spans="1:2">
+      <c r="A82" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="15" t="n">
-        <v>0.451</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="82" spans="1:2">
-      <c r="A82" s="16" t="s">
+      <c r="B82" s="15" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="83" spans="1:2">
+      <c r="A83" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B83" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="83" spans="1:2">
-      <c r="A83" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83" s="15" t="n">
-        <v>20169</v>
-      </c>
-    </row>
     <row customHeight="1" ht="25" r="84" spans="1:2">
-      <c r="A84" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="18" t="n">
-        <v>236</v>
+      <c r="A84" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" s="15" t="n">
+        <v>4078</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="85" spans="1:2">
-      <c r="A85" s="14" t="s"/>
-      <c r="B85" s="14" t="n"/>
+      <c r="A85" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="15" t="n">
+        <v>1335</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="86" spans="1:2">
-      <c r="A86" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>37</v>
+      <c r="A86" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="15" t="n">
+        <v>1228</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="87" spans="1:2">
       <c r="A87" s="8" t="s">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="B87" s="15" t="n">
-        <v>0.97</v>
+        <v>1149</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="88" spans="1:2">
-      <c r="A88" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>88</v>
+      <c r="A88" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="15" t="n">
+        <v>654</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="89" spans="1:2">
       <c r="A89" s="8" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="B89" s="15" t="n">
-        <v>988</v>
+        <v>587</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="90" spans="1:2">
-      <c r="A90" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="18" t="n">
-        <v>7</v>
+      <c r="A90" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" s="15" t="n">
+        <v>584</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="91" spans="1:2">
-      <c r="A91" s="14" t="s"/>
-      <c r="B91" s="14" t="n"/>
+      <c r="A91" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" s="15" t="n">
+        <v>540</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="92" spans="1:2">
-      <c r="A92" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>38</v>
+      <c r="A92" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="15" t="n">
+        <v>457</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="93" spans="1:2">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" s="18" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="94" spans="1:2">
+      <c r="A94" s="14" t="s"/>
+      <c r="B94" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="95" spans="1:2">
+      <c r="A95" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="96" spans="1:2">
+      <c r="A96" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="15" t="n">
-        <v>0.956</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="94" spans="1:2">
-      <c r="A94" s="16" t="s">
+      <c r="B96" s="15" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="97" spans="1:2">
+      <c r="A97" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B97" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="95" spans="1:2">
-      <c r="A95" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B95" s="15" t="n">
-        <v>21395</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="96" spans="1:2">
-      <c r="A96" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B96" s="18" t="n">
-        <v>959</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="97" spans="1:2">
-      <c r="A97" s="14" t="s"/>
-      <c r="B97" s="14" t="n"/>
-    </row>
     <row customHeight="1" ht="25" r="98" spans="1:2">
-      <c r="A98" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>39</v>
+      <c r="A98" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" s="15" t="n">
+        <v>4713</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="99" spans="1:2">
       <c r="A99" s="8" t="s">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="B99" s="15" t="n">
-        <v>0.993</v>
+        <v>4100</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="100" spans="1:2">
-      <c r="A100" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>88</v>
+      <c r="A100" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" s="15" t="n">
+        <v>1136</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="101" spans="1:2">
       <c r="A101" s="8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B101" s="15" t="n">
-        <v>4078</v>
+        <v>911</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="102" spans="1:2">
       <c r="A102" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B102" s="15" t="n">
-        <v>1335</v>
+        <v>851</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="103" spans="1:2">
       <c r="A103" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B103" s="15" t="n">
-        <v>1228</v>
+        <v>798</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="104" spans="1:2">
       <c r="A104" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B104" s="15" t="n">
-        <v>1149</v>
+        <v>682</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="105" spans="1:2">
       <c r="A105" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B105" s="15" t="n">
-        <v>654</v>
+        <v>642</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="106" spans="1:2">
       <c r="A106" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B106" s="15" t="n">
-        <v>587</v>
+        <v>601</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="107" spans="1:2">
-      <c r="A107" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B107" s="15" t="n">
-        <v>584</v>
+      <c r="A107" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" s="18" t="n">
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="108" spans="1:2">
-      <c r="A108" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B108" s="15" t="n">
-        <v>540</v>
-      </c>
+      <c r="A108" s="14" t="s"/>
+      <c r="B108" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="109" spans="1:2">
-      <c r="A109" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B109" s="15" t="n">
-        <v>457</v>
+      <c r="A109" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="110" spans="1:2">
-      <c r="A110" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B110" s="18" t="n">
-        <v>432</v>
+      <c r="A110" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="15" t="n">
+        <v>0.997</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="111" spans="1:2">
-      <c r="A111" s="14" t="s"/>
-      <c r="B111" s="14" t="n"/>
+      <c r="A111" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="112" spans="1:2">
-      <c r="A112" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>40</v>
+      <c r="A112" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B112" s="15" t="n">
+        <v>313</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="113" spans="1:2">
       <c r="A113" s="8" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="B113" s="15" t="n">
-        <v>0.994</v>
+        <v>262</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="114" spans="1:2">
-      <c r="A114" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>88</v>
+      <c r="A114" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="15" t="n">
+        <v>256</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="115" spans="1:2">
       <c r="A115" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B115" s="15" t="n">
-        <v>4713</v>
+        <v>209</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="116" spans="1:2">
       <c r="A116" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B116" s="15" t="n">
-        <v>4100</v>
+        <v>182</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="117" spans="1:2">
       <c r="A117" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B117" s="15" t="n">
-        <v>1136</v>
+        <v>180</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="118" spans="1:2">
       <c r="A118" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B118" s="15" t="n">
-        <v>911</v>
+        <v>156</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="119" spans="1:2">
       <c r="A119" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B119" s="15" t="n">
-        <v>851</v>
+        <v>147</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="120" spans="1:2">
       <c r="A120" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B120" s="15" t="n">
-        <v>798</v>
+        <v>144</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="121" spans="1:2">
-      <c r="A121" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B121" s="15" t="n">
-        <v>682</v>
+      <c r="A121" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="18" t="n">
+        <v>135</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="122" spans="1:2">
-      <c r="A122" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B122" s="15" t="n">
-        <v>642</v>
-      </c>
+      <c r="A122" s="14" t="s"/>
+      <c r="B122" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="123" spans="1:2">
-      <c r="A123" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B123" s="15" t="n">
-        <v>601</v>
+      <c r="A123" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="124" spans="1:2">
-      <c r="A124" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B124" s="18" t="n">
-        <v>600</v>
+      <c r="A124" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="15" t="n">
+        <v>0.998</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="125" spans="1:2">
-      <c r="A125" s="14" t="s"/>
-      <c r="B125" s="14" t="n"/>
+      <c r="A125" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="126" spans="1:2">
-      <c r="A126" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>41</v>
+      <c r="A126" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126" s="15" t="n">
+        <v>1117</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="127" spans="1:2">
       <c r="A127" s="8" t="s">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="B127" s="15" t="n">
-        <v>0.996</v>
+        <v>1060</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="128" spans="1:2">
-      <c r="A128" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>88</v>
+      <c r="A128" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B128" s="15" t="n">
+        <v>588</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="129" spans="1:2">
       <c r="A129" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B129" s="15" t="n">
-        <v>313</v>
+        <v>390</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="130" spans="1:2">
       <c r="A130" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B130" s="15" t="n">
-        <v>262</v>
+        <v>187</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="131" spans="1:2">
       <c r="A131" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B131" s="15" t="n">
-        <v>256</v>
+        <v>156</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="132" spans="1:2">
       <c r="A132" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B132" s="15" t="n">
-        <v>209</v>
+        <v>124</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="133" spans="1:2">
       <c r="A133" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B133" s="15" t="n">
-        <v>182</v>
+        <v>108</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="134" spans="1:2">
       <c r="A134" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B134" s="15" t="n">
-        <v>180</v>
+        <v>96</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="135" spans="1:2">
-      <c r="A135" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B135" s="15" t="n">
-        <v>156</v>
+      <c r="A135" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" s="18" t="n">
+        <v>87</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="136" spans="1:2">
-      <c r="A136" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B136" s="15" t="n">
-        <v>147</v>
-      </c>
+      <c r="A136" s="14" t="s"/>
+      <c r="B136" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="137" spans="1:2">
-      <c r="A137" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B137" s="15" t="n">
-        <v>144</v>
+      <c r="A137" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="138" spans="1:2">
-      <c r="A138" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B138" s="18" t="n">
-        <v>135</v>
+      <c r="A138" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="15" t="n">
+        <v>0.995</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="139" spans="1:2">
-      <c r="A139" s="14" t="s"/>
-      <c r="B139" s="14" t="n"/>
+      <c r="A139" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="140" spans="1:2">
-      <c r="A140" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>43</v>
+      <c r="A140" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B140" s="15" t="n">
+        <v>6000</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="141" spans="1:2">
       <c r="A141" s="8" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="B141" s="15" t="n">
-        <v>0.998</v>
+        <v>4480</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="142" spans="1:2">
-      <c r="A142" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B142" s="17" t="s">
-        <v>88</v>
+      <c r="A142" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B142" s="15" t="n">
+        <v>2621</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="143" spans="1:2">
       <c r="A143" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B143" s="15" t="n">
-        <v>1117</v>
+        <v>957</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="144" spans="1:2">
       <c r="A144" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B144" s="15" t="n">
-        <v>1060</v>
+        <v>245</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="145" spans="1:2">
-      <c r="A145" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B145" s="15" t="n">
-        <v>588</v>
+      <c r="A145" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B145" s="18" t="n">
+        <v>66</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="146" spans="1:2">
-      <c r="A146" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B146" s="15" t="n">
-        <v>390</v>
-      </c>
+      <c r="A146" s="14" t="s"/>
+      <c r="B146" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="147" spans="1:2">
-      <c r="A147" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B147" s="15" t="n">
-        <v>187</v>
+      <c r="A147" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="148" spans="1:2">
       <c r="A148" s="8" t="s">
-        <v>167</v>
+        <v>2</v>
       </c>
       <c r="B148" s="15" t="n">
-        <v>156</v>
+        <v>0.999</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="149" spans="1:2">
-      <c r="A149" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B149" s="15" t="n">
-        <v>124</v>
+      <c r="A149" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="150" spans="1:2">
@@ -6161,7 +6120,7 @@
         <v>169</v>
       </c>
       <c r="B150" s="15" t="n">
-        <v>108</v>
+        <v>359</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="151" spans="1:2">
@@ -6169,140 +6128,144 @@
         <v>170</v>
       </c>
       <c r="B151" s="15" t="n">
-        <v>96</v>
+        <v>239</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="152" spans="1:2">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B152" s="18" t="n">
-        <v>87</v>
+      <c r="B152" s="15" t="n">
+        <v>208</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="153" spans="1:2">
-      <c r="A153" s="14" t="s"/>
-      <c r="B153" s="14" t="n"/>
+      <c r="A153" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B153" s="15" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="154" spans="1:2">
-      <c r="A154" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>44</v>
+      <c r="A154" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B154" s="15" t="n">
+        <v>106</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="155" spans="1:2">
       <c r="A155" s="8" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="B155" s="15" t="n">
-        <v>0.995</v>
+        <v>104</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="156" spans="1:2">
-      <c r="A156" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B156" s="17" t="s">
-        <v>88</v>
+      <c r="A156" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B156" s="15" t="n">
+        <v>89</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="157" spans="1:2">
       <c r="A157" s="8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B157" s="15" t="n">
-        <v>6000</v>
+        <v>89</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="158" spans="1:2">
       <c r="A158" s="8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B158" s="15" t="n">
-        <v>4480</v>
+        <v>56</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="159" spans="1:2">
-      <c r="A159" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B159" s="15" t="n">
-        <v>2621</v>
+      <c r="A159" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B159" s="18" t="n">
+        <v>53</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="160" spans="1:2">
-      <c r="A160" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B160" s="15" t="n">
-        <v>957</v>
-      </c>
+      <c r="A160" s="14" t="s"/>
+      <c r="B160" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="161" spans="1:2">
-      <c r="A161" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B161" s="15" t="n">
-        <v>245</v>
+      <c r="A161" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="162" spans="1:2">
-      <c r="A162" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B162" s="18" t="n">
-        <v>66</v>
+      <c r="A162" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162" s="15" t="n">
+        <v>0.998</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="163" spans="1:2">
-      <c r="A163" s="14" t="s"/>
-      <c r="B163" s="14" t="n"/>
+      <c r="A163" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="164" spans="1:2">
-      <c r="A164" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>45</v>
+      <c r="A164" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B164" s="15" t="n">
+        <v>567</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="165" spans="1:2">
       <c r="A165" s="8" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="B165" s="15" t="n">
-        <v>0.997</v>
+        <v>299</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="166" spans="1:2">
-      <c r="A166" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B166" s="17" t="s">
-        <v>88</v>
+      <c r="A166" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B166" s="15" t="n">
+        <v>238</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="167" spans="1:2">
       <c r="A167" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B167" s="15" t="n">
-        <v>359</v>
+        <v>230</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="168" spans="1:2">
       <c r="A168" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B168" s="15" t="n">
-        <v>239</v>
+        <v>210</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="169" spans="1:2">
       <c r="A169" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B169" s="15" t="n">
         <v>208</v>
@@ -6310,58 +6273,54 @@
     </row>
     <row customHeight="1" ht="25" r="170" spans="1:2">
       <c r="A170" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B170" s="15" t="n">
-        <v>110</v>
+        <v>182</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="171" spans="1:2">
       <c r="A171" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B171" s="15" t="n">
-        <v>106</v>
+        <v>147</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="172" spans="1:2">
       <c r="A172" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B172" s="15" t="n">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="173" spans="1:2">
-      <c r="A173" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B173" s="15" t="n">
-        <v>89</v>
+      <c r="A173" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B173" s="18" t="n">
+        <v>129</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="174" spans="1:2">
-      <c r="A174" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B174" s="15" t="n">
-        <v>89</v>
-      </c>
+      <c r="A174" s="14" t="s"/>
+      <c r="B174" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="175" spans="1:2">
-      <c r="A175" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B175" s="15" t="n">
-        <v>56</v>
+      <c r="A175" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="176" spans="1:2">
       <c r="A176" s="11" t="s">
-        <v>187</v>
+        <v>2</v>
       </c>
       <c r="B176" s="18" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="177" spans="1:2">
@@ -6373,396 +6332,228 @@
         <v>0</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="179" spans="1:2">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B179" s="15" t="n">
-        <v>0.998</v>
+      <c r="B179" s="18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="180" spans="1:2">
-      <c r="A180" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B180" s="17" t="s">
-        <v>88</v>
-      </c>
+      <c r="A180" s="14" t="s"/>
+      <c r="B180" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="181" spans="1:2">
-      <c r="A181" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B181" s="15" t="n">
-        <v>567</v>
+      <c r="A181" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="182" spans="1:2">
       <c r="A182" s="8" t="s">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="B182" s="15" t="n">
-        <v>299</v>
+        <v>0.994</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="183" spans="1:2">
-      <c r="A183" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B183" s="15" t="n">
-        <v>238</v>
+      <c r="A183" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B183" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="184" spans="1:2">
       <c r="A184" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B184" s="15" t="n">
-        <v>230</v>
+        <v>5874</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="185" spans="1:2">
       <c r="A185" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B185" s="15" t="n">
-        <v>210</v>
+        <v>2828</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="186" spans="1:2">
       <c r="A186" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B186" s="15" t="n">
-        <v>208</v>
+        <v>951</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="187" spans="1:2">
       <c r="A187" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B187" s="15" t="n">
-        <v>182</v>
+        <v>258</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="188" spans="1:2">
       <c r="A188" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B188" s="15" t="n">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="189" spans="1:2">
       <c r="A189" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189" s="15" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="190" spans="1:2">
+      <c r="A190" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190" s="15" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="191" spans="1:2">
+      <c r="A191" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B189" s="15" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="190" spans="1:2">
-      <c r="A190" s="11" t="s">
+      <c r="B191" s="15" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="192" spans="1:2">
+      <c r="A192" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B190" s="18" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="191" spans="1:2">
-      <c r="A191" s="14" t="s"/>
-      <c r="B191" s="14" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="192" spans="1:2">
-      <c r="A192" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>48</v>
+      <c r="B192" s="15" t="n">
+        <v>182</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="193" spans="1:2">
-      <c r="A193" s="8" t="s">
+      <c r="A193" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" s="18" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="194" spans="1:2">
+      <c r="A194" s="14" t="s"/>
+      <c r="B194" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="195" spans="1:2">
+      <c r="A195" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="196" spans="1:2">
+      <c r="A196" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B193" s="15" t="n">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="194" spans="1:2">
-      <c r="A194" s="16" t="s">
+      <c r="B196" s="18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="197" spans="1:2">
+      <c r="A197" s="14" t="s"/>
+      <c r="B197" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="198" spans="1:2">
+      <c r="A198" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="199" spans="1:2">
+      <c r="A199" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B199" s="15" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="200" spans="1:2">
+      <c r="A200" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B194" s="17" t="s">
+      <c r="B200" s="17" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="195" spans="1:2">
-      <c r="A195" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B195" s="18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="196" spans="1:2">
-      <c r="A196" s="14" t="s"/>
-      <c r="B196" s="14" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="197" spans="1:2">
-      <c r="A197" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="198" spans="1:2">
-      <c r="A198" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B198" s="18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="199" spans="1:2">
-      <c r="A199" s="14" t="s"/>
-      <c r="B199" s="14" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="200" spans="1:2">
-      <c r="A200" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="201" spans="1:2">
       <c r="A201" s="8" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="B201" s="15" t="n">
-        <v>0.994</v>
+        <v>2967146</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="202" spans="1:2">
-      <c r="A202" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B202" s="17" t="s">
-        <v>88</v>
+      <c r="A202" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B202" s="15" t="n">
+        <v>11438</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="203" spans="1:2">
       <c r="A203" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B203" s="15" t="n">
-        <v>5874</v>
+        <v>2932</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="204" spans="1:2">
-      <c r="A204" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B204" s="15" t="n">
-        <v>2828</v>
+      <c r="A204" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B204" s="18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="205" spans="1:2">
-      <c r="A205" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B205" s="15" t="n">
-        <v>951</v>
-      </c>
+      <c r="A205" s="14" t="s"/>
+      <c r="B205" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="206" spans="1:2">
-      <c r="A206" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B206" s="15" t="n">
-        <v>258</v>
+      <c r="A206" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="207" spans="1:2">
-      <c r="A207" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B207" s="15" t="n">
-        <v>215</v>
+      <c r="A207" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207" s="18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="208" spans="1:2">
-      <c r="A208" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B208" s="15" t="n">
-        <v>215</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="209" spans="1:2">
-      <c r="A209" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B209" s="15" t="n">
-        <v>206</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="210" spans="1:2">
-      <c r="A210" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B210" s="15" t="n">
-        <v>191</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="211" spans="1:2">
-      <c r="A211" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B211" s="15" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="212" spans="1:2">
-      <c r="A212" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B212" s="18" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="213" spans="1:2">
-      <c r="A213" s="14" t="s"/>
-      <c r="B213" s="14" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="214" spans="1:2">
-      <c r="A214" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B214" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="215" spans="1:2">
-      <c r="A215" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B215" s="18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="216" spans="1:2">
-      <c r="A216" s="14" t="s"/>
-      <c r="B216" s="14" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="217" spans="1:2">
-      <c r="A217" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="218" spans="1:2">
-      <c r="A218" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B218" s="15" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="219" spans="1:2">
-      <c r="A219" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B219" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="220" spans="1:2">
-      <c r="A220" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B220" s="15" t="n">
-        <v>2967146</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="221" spans="1:2">
-      <c r="A221" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B221" s="15" t="n">
-        <v>11438</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="222" spans="1:2">
-      <c r="A222" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B222" s="15" t="n">
-        <v>2932</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="223" spans="1:2">
-      <c r="A223" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B223" s="18" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="224" spans="1:2">
-      <c r="A224" s="14" t="s"/>
-      <c r="B224" s="14" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="225" spans="1:2">
-      <c r="A225" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="226" spans="1:2">
-      <c r="A226" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B226" s="15" t="n">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="227" spans="1:2">
-      <c r="A227" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B227" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="228" spans="1:2">
-      <c r="A228" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B228" s="15" t="n">
-        <v>154</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="229" spans="1:2">
-      <c r="A229" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B229" s="18" t="n">
-        <v>101</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="230" spans="1:2">
-      <c r="A230" s="14" t="s"/>
-      <c r="B230" s="14" t="n"/>
+      <c r="A208" s="14" t="s"/>
+      <c r="B208" s="14" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B11">
@@ -6774,7 +6565,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B28">
+  <conditionalFormatting sqref="B21:B31">
     <cfRule priority="2" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="min"/>
@@ -6783,7 +6574,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B42">
+  <conditionalFormatting sqref="B38:B44">
     <cfRule priority="3" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="min"/>
@@ -6792,7 +6583,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:B48">
+  <conditionalFormatting sqref="B48:B50">
     <cfRule priority="4" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="min"/>
@@ -6801,7 +6592,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B58">
+  <conditionalFormatting sqref="B54:B64">
     <cfRule priority="5" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="min"/>
@@ -6810,7 +6601,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:B64">
+  <conditionalFormatting sqref="B68:B70">
     <cfRule priority="6" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="min"/>
@@ -6819,7 +6610,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68:B78">
+  <conditionalFormatting sqref="B77:B79">
     <cfRule priority="7" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="min"/>
@@ -6828,7 +6619,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82:B84">
+  <conditionalFormatting sqref="B83:B93">
     <cfRule priority="8" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="min"/>
@@ -6837,7 +6628,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B90">
+  <conditionalFormatting sqref="B97:B107">
     <cfRule priority="9" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="min"/>
@@ -6846,7 +6637,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B94:B96">
+  <conditionalFormatting sqref="B111:B121">
     <cfRule priority="10" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="min"/>
@@ -6855,7 +6646,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100:B110">
+  <conditionalFormatting sqref="B125:B135">
     <cfRule priority="11" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="min"/>
@@ -6864,7 +6655,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B114:B124">
+  <conditionalFormatting sqref="B139:B145">
     <cfRule priority="12" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="min"/>
@@ -6873,7 +6664,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B138">
+  <conditionalFormatting sqref="B149:B159">
     <cfRule priority="13" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="min"/>
@@ -6882,7 +6673,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B142:B152">
+  <conditionalFormatting sqref="B163:B173">
     <cfRule priority="14" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="min"/>
@@ -6891,7 +6682,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B156:B162">
+  <conditionalFormatting sqref="B183:B193">
     <cfRule priority="15" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="min"/>
@@ -6900,53 +6691,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166:B176">
+  <conditionalFormatting sqref="B200:B204">
     <cfRule priority="16" type="dataBar">
-      <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="00F79646"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B180:B190">
-    <cfRule priority="17" type="dataBar">
-      <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="00F79646"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B194:B195">
-    <cfRule priority="18" type="dataBar">
-      <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="00F79646"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B202:B212">
-    <cfRule priority="19" type="dataBar">
-      <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="00F79646"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B219:B223">
-    <cfRule priority="20" type="dataBar">
-      <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="00F79646"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B227:B229">
-    <cfRule priority="21" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/test/output/data_consist_properties_2016.xlsx
+++ b/test/output/data_consist_properties_2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="key" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="numeric" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="string" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="key" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="numeric" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="string" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,211 +18,229 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
+  <si>
+    <t>column_1</t>
+  </si>
+  <si>
+    <t>column_2</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
+  </si>
+  <si>
+    <t>include_1</t>
+  </si>
+  <si>
+    <t>include_2</t>
+  </si>
+  <si>
+    <t>corr</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>parcelid</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>airconditioningtypeid</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>architecturalstyletypeid</t>
+  </si>
+  <si>
+    <t>basementsqft</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>bathroomcnt</t>
+  </si>
+  <si>
+    <t>bedroomcnt</t>
+  </si>
+  <si>
+    <t>buildingclasstypeid</t>
+  </si>
+  <si>
+    <t>buildingqualitytypeid</t>
+  </si>
+  <si>
+    <t>calculatedbathnbr</t>
+  </si>
+  <si>
+    <t>decktypeid</t>
+  </si>
+  <si>
+    <t>exclude</t>
+  </si>
+  <si>
+    <t>finishedfloor1squarefeet</t>
+  </si>
+  <si>
+    <t>calculatedfinishedsquarefeet</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet12</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet13</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet15</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet50</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet6</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>fireplacecnt</t>
+  </si>
+  <si>
+    <t>fullbathcnt</t>
+  </si>
+  <si>
+    <t>garagecarcnt</t>
+  </si>
+  <si>
+    <t>garagetotalsqft</t>
+  </si>
+  <si>
+    <t>hashottuborspa</t>
+  </si>
+  <si>
+    <t>heatingorsystemtypeid</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>lotsizesquarefeet</t>
+  </si>
+  <si>
+    <t>poolcnt</t>
+  </si>
+  <si>
+    <t>poolsizesum</t>
+  </si>
+  <si>
+    <t>pooltypeid10</t>
+  </si>
+  <si>
+    <t>pooltypeid2</t>
+  </si>
+  <si>
+    <t>pooltypeid7</t>
+  </si>
+  <si>
+    <t>propertycountylandusecode</t>
+  </si>
+  <si>
+    <t>propertylandusetypeid</t>
+  </si>
+  <si>
+    <t>propertyzoningdesc</t>
+  </si>
+  <si>
+    <t>rawcensustractandblock</t>
+  </si>
+  <si>
+    <t>regionidcity</t>
+  </si>
+  <si>
+    <t>regionidcounty</t>
+  </si>
+  <si>
+    <t>regionidneighborhood</t>
+  </si>
+  <si>
+    <t>regionidzip</t>
+  </si>
+  <si>
+    <t>roomcnt</t>
+  </si>
+  <si>
+    <t>storytypeid</t>
+  </si>
+  <si>
+    <t>threequarterbathnbr</t>
+  </si>
+  <si>
+    <t>typeconstructiontypeid</t>
+  </si>
+  <si>
+    <t>unitcnt</t>
+  </si>
+  <si>
+    <t>yardbuildingsqft17</t>
+  </si>
+  <si>
+    <t>yardbuildingsqft26</t>
+  </si>
+  <si>
+    <t>yearbuilt</t>
+  </si>
+  <si>
+    <t>numberofstories</t>
+  </si>
+  <si>
+    <t>fireplaceflag</t>
+  </si>
+  <si>
+    <t>structuretaxvaluedollarcnt</t>
+  </si>
+  <si>
+    <t>taxvaluedollarcnt</t>
+  </si>
+  <si>
+    <t>assessmentyear</t>
+  </si>
+  <si>
+    <t>landtaxvaluedollarcnt</t>
+  </si>
+  <si>
+    <t>taxamount</t>
+  </si>
+  <si>
+    <t>taxdelinquencyflag</t>
+  </si>
+  <si>
+    <t>taxdelinquencyyear</t>
+  </si>
+  <si>
+    <t>censustractandblock</t>
+  </si>
   <si>
     <t>column</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>corr</t>
-  </si>
-  <si>
-    <t>parcelid</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>airconditioningtypeid</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>architecturalstyletypeid</t>
-  </si>
-  <si>
-    <t>basementsqft</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>bathroomcnt</t>
-  </si>
-  <si>
-    <t>bedroomcnt</t>
-  </si>
-  <si>
-    <t>buildingclasstypeid</t>
-  </si>
-  <si>
-    <t>buildingqualitytypeid</t>
-  </si>
-  <si>
-    <t>calculatedbathnbr</t>
-  </si>
-  <si>
-    <t>decktypeid</t>
-  </si>
-  <si>
-    <t>finishedfloor1squarefeet</t>
-  </si>
-  <si>
-    <t>calculatedfinishedsquarefeet</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet12</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet13</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet15</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet50</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet6</t>
-  </si>
-  <si>
-    <t>fips</t>
-  </si>
-  <si>
-    <t>fireplacecnt</t>
-  </si>
-  <si>
-    <t>fullbathcnt</t>
-  </si>
-  <si>
-    <t>garagecarcnt</t>
-  </si>
-  <si>
-    <t>garagetotalsqft</t>
-  </si>
-  <si>
-    <t>hashottuborspa</t>
-  </si>
-  <si>
-    <t>heatingorsystemtypeid</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>lotsizesquarefeet</t>
-  </si>
-  <si>
-    <t>poolcnt</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>poolsizesum</t>
-  </si>
-  <si>
-    <t>pooltypeid10</t>
-  </si>
-  <si>
-    <t>pooltypeid2</t>
-  </si>
-  <si>
-    <t>pooltypeid7</t>
-  </si>
-  <si>
-    <t>propertycountylandusecode</t>
-  </si>
-  <si>
-    <t>propertylandusetypeid</t>
-  </si>
-  <si>
-    <t>propertyzoningdesc</t>
-  </si>
-  <si>
-    <t>rawcensustractandblock</t>
-  </si>
-  <si>
-    <t>regionidcity</t>
-  </si>
-  <si>
-    <t>regionidcounty</t>
-  </si>
-  <si>
-    <t>regionidneighborhood</t>
-  </si>
-  <si>
-    <t>regionidzip</t>
-  </si>
-  <si>
-    <t>roomcnt</t>
-  </si>
-  <si>
-    <t>storytypeid</t>
-  </si>
-  <si>
-    <t>threequarterbathnbr</t>
-  </si>
-  <si>
-    <t>typeconstructiontypeid</t>
-  </si>
-  <si>
-    <t>unitcnt</t>
-  </si>
-  <si>
-    <t>yardbuildingsqft17</t>
-  </si>
-  <si>
-    <t>yardbuildingsqft26</t>
-  </si>
-  <si>
-    <t>yearbuilt</t>
-  </si>
-  <si>
-    <t>numberofstories</t>
-  </si>
-  <si>
-    <t>fireplaceflag</t>
-  </si>
-  <si>
-    <t>structuretaxvaluedollarcnt</t>
-  </si>
-  <si>
-    <t>taxvaluedollarcnt</t>
-  </si>
-  <si>
-    <t>assessmentyear</t>
-  </si>
-  <si>
-    <t>landtaxvaluedollarcnt</t>
-  </si>
-  <si>
-    <t>taxamount</t>
-  </si>
-  <si>
-    <t>taxdelinquencyflag</t>
-  </si>
-  <si>
-    <t>taxdelinquencyyear</t>
-  </si>
-  <si>
-    <t>censustractandblock</t>
-  </si>
-  <si>
     <t>venn graph</t>
   </si>
   <si>
     <t>sample_value</t>
   </si>
   <si>
-    <t>11879036
-12439304</t>
+    <t>10846758
+11554432</t>
   </si>
   <si>
     <t>nan_rate</t>
@@ -251,8 +269,8 @@
     <t>overlap rate</t>
   </si>
   <si>
-    <t>60590757.032
-60371066.482</t>
+    <t>61110083.032009
+60379010.112011</t>
   </si>
   <si>
     <t>0.004
@@ -263,8 +281,8 @@
 99513/2982285</t>
   </si>
   <si>
-    <t>6.0372220023e+13
-6.0379200422e+13</t>
+    <t>60590992242021.0
+60379105022010.0</t>
   </si>
   <si>
     <t>0.025
@@ -363,12 +381,6 @@
   </si>
   <si>
     <t>6111.0 -&gt; nan</t>
-  </si>
-  <si>
-    <t>True -&gt; nan</t>
-  </si>
-  <si>
-    <t>nan -&gt; True</t>
   </si>
   <si>
     <t>nan -&gt; 7.0</t>
@@ -866,7 +878,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>2</col>
@@ -874,20 +886,20 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="3429000"/>
+    <ext cx="6048375" cy="3352800"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -899,20 +911,20 @@
       <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="3429000"/>
+    <ext cx="6048375" cy="3352800"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="2" name="Image 2"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -924,20 +936,20 @@
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="3429000"/>
+    <ext cx="6048375" cy="3352800"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="3" name="Image 3"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -946,7 +958,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>2</col>
@@ -954,20 +966,20 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -979,20 +991,20 @@
       <row>8</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="2" name="Image 2"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1004,20 +1016,20 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="3" name="Image 3"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1029,20 +1041,20 @@
       <row>22</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="4" name="Image 4"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1054,20 +1066,20 @@
       <row>29</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="5" name="Image 5"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1079,20 +1091,20 @@
       <row>36</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="6" name="Image 6"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1104,20 +1116,20 @@
       <row>43</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="7" name="Image 7"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1129,20 +1141,20 @@
       <row>50</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="8" name="Image 8"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1154,20 +1166,20 @@
       <row>57</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="9" name="Image 9"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1179,20 +1191,20 @@
       <row>64</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="10" name="Image 10"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1204,20 +1216,20 @@
       <row>71</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="11" name="Image 11"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1229,20 +1241,20 @@
       <row>78</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="12" name="Image 12"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1254,20 +1266,20 @@
       <row>85</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="13" name="Image 13"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1279,20 +1291,20 @@
       <row>92</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="14" name="Image 14"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1304,20 +1316,20 @@
       <row>99</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="15" name="Image 15"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1329,20 +1341,20 @@
       <row>106</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="16" name="Image 16"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1354,20 +1366,20 @@
       <row>113</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="17" name="Image 17"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1379,20 +1391,20 @@
       <row>120</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="18" name="Image 18"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1404,20 +1416,20 @@
       <row>127</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="19" name="Image 19"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId19"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1429,20 +1441,20 @@
       <row>134</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="20" name="Image 20"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1454,20 +1466,20 @@
       <row>141</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="21" name="Image 21"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId21"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1479,20 +1491,20 @@
       <row>148</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="22" name="Image 22"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId22"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1504,20 +1516,20 @@
       <row>155</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="23" name="Image 23"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId23"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,20 +1541,20 @@
       <row>162</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="24" name="Image 24"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId24"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1554,20 +1566,20 @@
       <row>169</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="25" name="Image 25"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId25"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1579,20 +1591,20 @@
       <row>176</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="26" name="Image 26"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId26"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1604,20 +1616,20 @@
       <row>183</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="27" name="Image 27"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId27"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1629,20 +1641,20 @@
       <row>190</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="28" name="Image 28"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId28"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1654,20 +1666,20 @@
       <row>197</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="29" name="Image 29"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId29"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1679,45 +1691,20 @@
       <row>204</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6172200" cy="2743200"/>
+    <ext cx="6048375" cy="2686050"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="30" name="Image 30"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>211</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6172200" cy="2743200"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="31" name="Image 31"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2014,7 +2001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2023,12 +2010,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="42"/>
-    <col customWidth="1" max="2" min="2" width="30"/>
-    <col customWidth="1" max="3" min="3" width="30"/>
+    <col customWidth="1" max="2" min="2" width="42"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="15"/>
+    <col customWidth="1" max="5" min="5" width="15"/>
+    <col customWidth="1" max="6" min="6" width="15"/>
+    <col customWidth="1" max="7" min="7" width="15"/>
+    <col customWidth="1" max="8" min="8" width="15"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="25" r="0" spans="1:3"/>
-    <row customHeight="1" ht="25" r="1" spans="1:3">
+    <row customHeight="1" ht="25" r="0" spans="1:8"/>
+    <row customHeight="1" ht="25" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2038,644 +2030,1431 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="3" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>0.998</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="4" spans="1:3">
+      <c r="H3" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="4" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="H6" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="H7" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="H9" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H10" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H12" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H13" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="H17" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H19" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H20" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H21" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="H22" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="H23" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="H25" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="H34" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="35" spans="1:8">
+      <c r="A35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="H35" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="H36" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>0.992</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="E37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="H37" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="38" spans="1:8">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="H38" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="39" spans="1:8">
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H39" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H40" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="41" spans="1:8">
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="H41" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="42" spans="1:8">
+      <c r="A42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H42" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="43" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="44" spans="1:8">
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="H44" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="45" spans="1:8">
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="47" spans="1:8">
+      <c r="A47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H47" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="48" spans="1:8">
+      <c r="A48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="49" spans="1:8">
+      <c r="A49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="H49" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="50" spans="1:8">
+      <c r="A50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="52" spans="1:8">
+      <c r="A52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="H52" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="53" spans="1:8">
+      <c r="A53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="H53" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="54" spans="1:8">
+      <c r="A54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H54" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="55" spans="1:8">
+      <c r="A55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="H55" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="56" spans="1:8">
+      <c r="A56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="H56" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="57" spans="1:8">
+      <c r="A57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="58" spans="1:8">
+      <c r="A58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="25" r="59" spans="1:8">
+      <c r="A59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>0.994</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>0.354</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="E59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="n">
         <v>0.999</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>0.993</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>0.979</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>0.993</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="3" t="n">
-        <v>0.993</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>0.993</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>0.994</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="3" t="n">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="3" t="n">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="n">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3" t="n">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="3" t="n">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="3" t="n">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="3" t="n">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="3" t="n">
-        <v>0.994</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="3" t="n">
-        <v>0.982</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="3" t="n">
-        <v>0.972</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="3" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="3" t="n">
-        <v>0.968</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="56" spans="1:3">
-      <c r="A56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="3" t="n">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="58" spans="1:3">
-      <c r="A58" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="59" spans="1:3">
-      <c r="A59" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="3" t="n">
-        <v>0.999</v>
-      </c>
+      <c r="H59" s="3" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2683,7 +3462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2696,7 +3475,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="1" min="1" width="21"/>
     <col customWidth="1" max="2" min="2" width="49.5"/>
     <col customWidth="1" max="3" min="3" width="90"/>
   </cols>
@@ -2704,21 +3483,21 @@
     <row customHeight="1" ht="40" r="0" spans="1:3"/>
     <row customHeight="1" ht="40" r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row customHeight="1" ht="40" r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C2" s="9" t="n">
         <v/>
@@ -2726,25 +3505,25 @@
     </row>
     <row customHeight="1" ht="40" r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C3" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="4" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>2985217</v>
@@ -2753,7 +3532,7 @@
     </row>
     <row customHeight="1" ht="40" r="6" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>0</v>
@@ -2762,7 +3541,7 @@
     </row>
     <row customHeight="1" ht="40" r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0</v>
@@ -2771,7 +3550,7 @@
     </row>
     <row customHeight="1" ht="40" r="8" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B8" s="12" t="n">
         <v>1</v>
@@ -2785,21 +3564,21 @@
     </row>
     <row customHeight="1" ht="40" r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row customHeight="1" ht="40" r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C11" s="9" t="n">
         <v/>
@@ -2807,25 +3586,25 @@
     </row>
     <row customHeight="1" ht="40" r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C12" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C13" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>99317</v>
@@ -2834,7 +3613,7 @@
     </row>
     <row customHeight="1" ht="40" r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>76</v>
@@ -2843,7 +3622,7 @@
     </row>
     <row customHeight="1" ht="40" r="16" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>196</v>
@@ -2852,7 +3631,7 @@
     </row>
     <row customHeight="1" ht="40" r="17" spans="1:3">
       <c r="A17" s="11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B17" s="12" t="n">
         <v>0.997</v>
@@ -2866,21 +3645,21 @@
     </row>
     <row customHeight="1" ht="40" r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row customHeight="1" ht="40" r="20" spans="1:3">
       <c r="A20" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C20" s="9" t="n">
         <v/>
@@ -2888,25 +3667,25 @@
     </row>
     <row customHeight="1" ht="40" r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C21" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="22" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C22" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="40" r="23" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>96734</v>
@@ -2915,7 +3694,7 @@
     </row>
     <row customHeight="1" ht="40" r="24" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>37</v>
@@ -2924,7 +3703,7 @@
     </row>
     <row customHeight="1" ht="40" r="25" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>21</v>
@@ -2933,7 +3712,7 @@
     </row>
     <row customHeight="1" ht="40" r="26" spans="1:3">
       <c r="A26" s="11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B26" s="12" t="n">
         <v>0.999</v>
@@ -2952,17 +3731,17 @@
     <mergeCell ref="C20:C26"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2970,7 +3749,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="1" min="1" width="16.5"/>
     <col customWidth="1" max="2" min="2" width="42"/>
     <col customWidth="1" max="3" min="3" width="90"/>
   </cols>
@@ -2978,18 +3757,18 @@
     <row customHeight="1" ht="45" r="0" spans="1:3"/>
     <row customHeight="1" ht="45" r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1</v>
@@ -3000,7 +3779,7 @@
     </row>
     <row customHeight="1" ht="45" r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>0</v>
@@ -3009,7 +3788,7 @@
     </row>
     <row customHeight="1" ht="45" r="4" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>0</v>
@@ -3018,7 +3797,7 @@
     </row>
     <row customHeight="1" ht="45" r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>0</v>
@@ -3027,7 +3806,7 @@
     </row>
     <row customHeight="1" ht="45" r="6" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B6" s="12" t="n">
         <v>0</v>
@@ -3041,18 +3820,18 @@
     </row>
     <row customHeight="1" ht="45" r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="9" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>0.992</v>
@@ -3063,7 +3842,7 @@
     </row>
     <row customHeight="1" ht="45" r="10" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>-8</v>
@@ -3072,7 +3851,7 @@
     </row>
     <row customHeight="1" ht="45" r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>0.007</v>
@@ -3081,7 +3860,7 @@
     </row>
     <row customHeight="1" ht="45" r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>0</v>
@@ -3090,7 +3869,7 @@
     </row>
     <row customHeight="1" ht="45" r="13" spans="1:3">
       <c r="A13" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B13" s="12" t="n">
         <v>32</v>
@@ -3104,18 +3883,18 @@
     </row>
     <row customHeight="1" ht="45" r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="16" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>0.994</v>
@@ -3126,7 +3905,7 @@
     </row>
     <row customHeight="1" ht="45" r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>-8</v>
@@ -3135,7 +3914,7 @@
     </row>
     <row customHeight="1" ht="45" r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>0.007</v>
@@ -3144,7 +3923,7 @@
     </row>
     <row customHeight="1" ht="45" r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>0</v>
@@ -3153,7 +3932,7 @@
     </row>
     <row customHeight="1" ht="45" r="20" spans="1:3">
       <c r="A20" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B20" s="12" t="n">
         <v>25</v>
@@ -3167,18 +3946,18 @@
     </row>
     <row customHeight="1" ht="45" r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="23" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>0.999</v>
@@ -3189,7 +3968,7 @@
     </row>
     <row customHeight="1" ht="45" r="24" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>-7</v>
@@ -3198,7 +3977,7 @@
     </row>
     <row customHeight="1" ht="45" r="25" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>0.001</v>
@@ -3207,7 +3986,7 @@
     </row>
     <row customHeight="1" ht="45" r="26" spans="1:3">
       <c r="A26" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>0</v>
@@ -3216,7 +3995,7 @@
     </row>
     <row customHeight="1" ht="45" r="27" spans="1:3">
       <c r="A27" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B27" s="12" t="n">
         <v>11</v>
@@ -3230,18 +4009,18 @@
     </row>
     <row customHeight="1" ht="45" r="29" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="30" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>0.999</v>
@@ -3252,7 +4031,7 @@
     </row>
     <row customHeight="1" ht="45" r="31" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>-2226</v>
@@ -3261,7 +4040,7 @@
     </row>
     <row customHeight="1" ht="45" r="32" spans="1:3">
       <c r="A32" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>-0.885</v>
@@ -3270,7 +4049,7 @@
     </row>
     <row customHeight="1" ht="45" r="33" spans="1:3">
       <c r="A33" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>0</v>
@@ -3279,7 +4058,7 @@
     </row>
     <row customHeight="1" ht="45" r="34" spans="1:3">
       <c r="A34" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B34" s="12" t="n">
         <v>0</v>
@@ -3293,18 +4072,18 @@
     </row>
     <row customHeight="1" ht="45" r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="37" spans="1:3">
       <c r="A37" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>0.999</v>
@@ -3315,7 +4094,7 @@
     </row>
     <row customHeight="1" ht="45" r="38" spans="1:3">
       <c r="A38" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>-8659</v>
@@ -3324,7 +4103,7 @@
     </row>
     <row customHeight="1" ht="45" r="39" spans="1:3">
       <c r="A39" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>1.392</v>
@@ -3333,7 +4112,7 @@
     </row>
     <row customHeight="1" ht="45" r="40" spans="1:3">
       <c r="A40" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B40" s="3" t="n">
         <v>0</v>
@@ -3342,7 +4121,7 @@
     </row>
     <row customHeight="1" ht="45" r="41" spans="1:3">
       <c r="A41" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B41" s="12" t="n">
         <v>331871</v>
@@ -3356,18 +4135,18 @@
     </row>
     <row customHeight="1" ht="45" r="43" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="44" spans="1:3">
       <c r="A44" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B44" s="3" t="n">
         <v>1</v>
@@ -3378,7 +4157,7 @@
     </row>
     <row customHeight="1" ht="45" r="45" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>-8659</v>
@@ -3387,7 +4166,7 @@
     </row>
     <row customHeight="1" ht="45" r="46" spans="1:3">
       <c r="A46" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>0.859</v>
@@ -3396,7 +4175,7 @@
     </row>
     <row customHeight="1" ht="45" r="47" spans="1:3">
       <c r="A47" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B47" s="3" t="n">
         <v>0</v>
@@ -3405,7 +4184,7 @@
     </row>
     <row customHeight="1" ht="45" r="48" spans="1:3">
       <c r="A48" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B48" s="12" t="n">
         <v>150000</v>
@@ -3419,18 +4198,18 @@
     </row>
     <row customHeight="1" ht="45" r="50" spans="1:3">
       <c r="A50" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="51" spans="1:3">
       <c r="A51" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>1</v>
@@ -3441,7 +4220,7 @@
     </row>
     <row customHeight="1" ht="45" r="52" spans="1:3">
       <c r="A52" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B52" s="3" t="n">
         <v>0</v>
@@ -3450,7 +4229,7 @@
     </row>
     <row customHeight="1" ht="45" r="53" spans="1:3">
       <c r="A53" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B53" s="3" t="n">
         <v>0</v>
@@ -3459,7 +4238,7 @@
     </row>
     <row customHeight="1" ht="45" r="54" spans="1:3">
       <c r="A54" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B54" s="3" t="n">
         <v>0</v>
@@ -3468,7 +4247,7 @@
     </row>
     <row customHeight="1" ht="45" r="55" spans="1:3">
       <c r="A55" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B55" s="12" t="n">
         <v>0</v>
@@ -3482,18 +4261,18 @@
     </row>
     <row customHeight="1" ht="45" r="57" spans="1:3">
       <c r="A57" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="58" spans="1:3">
       <c r="A58" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B58" s="3" t="n">
         <v>1</v>
@@ -3504,7 +4283,7 @@
     </row>
     <row customHeight="1" ht="45" r="59" spans="1:3">
       <c r="A59" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B59" s="3" t="n">
         <v>-3815</v>
@@ -3513,7 +4292,7 @@
     </row>
     <row customHeight="1" ht="45" r="60" spans="1:3">
       <c r="A60" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B60" s="3" t="n">
         <v>5.542</v>
@@ -3522,7 +4301,7 @@
     </row>
     <row customHeight="1" ht="45" r="61" spans="1:3">
       <c r="A61" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B61" s="3" t="n">
         <v>0</v>
@@ -3531,7 +4310,7 @@
     </row>
     <row customHeight="1" ht="45" r="62" spans="1:3">
       <c r="A62" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B62" s="12" t="n">
         <v>331871</v>
@@ -3545,18 +4324,18 @@
     </row>
     <row customHeight="1" ht="45" r="64" spans="1:3">
       <c r="A64" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="65" spans="1:3">
       <c r="A65" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B65" s="3" t="n">
         <v>0.998</v>
@@ -3567,7 +4346,7 @@
     </row>
     <row customHeight="1" ht="45" r="66" spans="1:3">
       <c r="A66" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B66" s="3" t="n">
         <v>0</v>
@@ -3576,7 +4355,7 @@
     </row>
     <row customHeight="1" ht="45" r="67" spans="1:3">
       <c r="A67" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B67" s="3" t="n">
         <v>3.109</v>
@@ -3585,7 +4364,7 @@
     </row>
     <row customHeight="1" ht="45" r="68" spans="1:3">
       <c r="A68" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B68" s="3" t="n">
         <v>0</v>
@@ -3594,7 +4373,7 @@
     </row>
     <row customHeight="1" ht="45" r="69" spans="1:3">
       <c r="A69" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B69" s="12" t="n">
         <v>16220</v>
@@ -3608,18 +4387,18 @@
     </row>
     <row customHeight="1" ht="45" r="71" spans="1:3">
       <c r="A71" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="72" spans="1:3">
       <c r="A72" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B72" s="3" t="n">
         <v>1</v>
@@ -3630,7 +4409,7 @@
     </row>
     <row customHeight="1" ht="45" r="73" spans="1:3">
       <c r="A73" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B73" s="3" t="n">
         <v>-2689</v>
@@ -3639,7 +4418,7 @@
     </row>
     <row customHeight="1" ht="45" r="74" spans="1:3">
       <c r="A74" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B74" s="3" t="n">
         <v>-0.235</v>
@@ -3648,7 +4427,7 @@
     </row>
     <row customHeight="1" ht="45" r="75" spans="1:3">
       <c r="A75" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B75" s="3" t="n">
         <v>0</v>
@@ -3657,7 +4436,7 @@
     </row>
     <row customHeight="1" ht="45" r="76" spans="1:3">
       <c r="A76" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B76" s="12" t="n">
         <v>772</v>
@@ -3671,18 +4450,18 @@
     </row>
     <row customHeight="1" ht="45" r="78" spans="1:3">
       <c r="A78" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="79" spans="1:3">
       <c r="A79" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B79" s="3" t="n">
         <v>0.999</v>
@@ -3693,7 +4472,7 @@
     </row>
     <row customHeight="1" ht="45" r="80" spans="1:3">
       <c r="A80" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80" s="3" t="n">
         <v>-2</v>
@@ -3702,7 +4481,7 @@
     </row>
     <row customHeight="1" ht="45" r="81" spans="1:3">
       <c r="A81" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81" s="3" t="n">
         <v>0</v>
@@ -3711,7 +4490,7 @@
     </row>
     <row customHeight="1" ht="45" r="82" spans="1:3">
       <c r="A82" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B82" s="3" t="n">
         <v>0</v>
@@ -3720,7 +4499,7 @@
     </row>
     <row customHeight="1" ht="45" r="83" spans="1:3">
       <c r="A83" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B83" s="12" t="n">
         <v>3</v>
@@ -3734,18 +4513,18 @@
     </row>
     <row customHeight="1" ht="45" r="85" spans="1:3">
       <c r="A85" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="86" spans="1:3">
       <c r="A86" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B86" s="3" t="n">
         <v>0.999</v>
@@ -3756,7 +4535,7 @@
     </row>
     <row customHeight="1" ht="45" r="87" spans="1:3">
       <c r="A87" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B87" s="3" t="n">
         <v>-7</v>
@@ -3765,7 +4544,7 @@
     </row>
     <row customHeight="1" ht="45" r="88" spans="1:3">
       <c r="A88" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B88" s="3" t="n">
         <v>0.001</v>
@@ -3774,7 +4553,7 @@
     </row>
     <row customHeight="1" ht="45" r="89" spans="1:3">
       <c r="A89" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B89" s="3" t="n">
         <v>0</v>
@@ -3783,7 +4562,7 @@
     </row>
     <row customHeight="1" ht="45" r="90" spans="1:3">
       <c r="A90" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B90" s="12" t="n">
         <v>11</v>
@@ -3797,18 +4576,18 @@
     </row>
     <row customHeight="1" ht="45" r="92" spans="1:3">
       <c r="A92" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="93" spans="1:3">
       <c r="A93" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B93" s="3" t="n">
         <v>0.997</v>
@@ -3819,7 +4598,7 @@
     </row>
     <row customHeight="1" ht="45" r="94" spans="1:3">
       <c r="A94" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B94" s="3" t="n">
         <v>-4</v>
@@ -3828,7 +4607,7 @@
     </row>
     <row customHeight="1" ht="45" r="95" spans="1:3">
       <c r="A95" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B95" s="3" t="n">
         <v>0.001</v>
@@ -3837,7 +4616,7 @@
     </row>
     <row customHeight="1" ht="45" r="96" spans="1:3">
       <c r="A96" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B96" s="3" t="n">
         <v>0</v>
@@ -3846,7 +4625,7 @@
     </row>
     <row customHeight="1" ht="45" r="97" spans="1:3">
       <c r="A97" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B97" s="12" t="n">
         <v>10</v>
@@ -3860,18 +4639,18 @@
     </row>
     <row customHeight="1" ht="45" r="99" spans="1:3">
       <c r="A99" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="100" spans="1:3">
       <c r="A100" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B100" s="3" t="n">
         <v>0.998</v>
@@ -3882,7 +4661,7 @@
     </row>
     <row customHeight="1" ht="45" r="101" spans="1:3">
       <c r="A101" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B101" s="3" t="n">
         <v>-1542</v>
@@ -3891,7 +4670,7 @@
     </row>
     <row customHeight="1" ht="45" r="102" spans="1:3">
       <c r="A102" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B102" s="3" t="n">
         <v>0.306</v>
@@ -3900,7 +4679,7 @@
     </row>
     <row customHeight="1" ht="45" r="103" spans="1:3">
       <c r="A103" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B103" s="3" t="n">
         <v>0</v>
@@ -3909,7 +4688,7 @@
     </row>
     <row customHeight="1" ht="45" r="104" spans="1:3">
       <c r="A104" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B104" s="12" t="n">
         <v>2888</v>
@@ -3923,18 +4702,18 @@
     </row>
     <row customHeight="1" ht="45" r="106" spans="1:3">
       <c r="A106" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="107" spans="1:3">
       <c r="A107" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B107" s="3" t="n">
         <v>1</v>
@@ -3945,7 +4724,7 @@
     </row>
     <row customHeight="1" ht="45" r="108" spans="1:3">
       <c r="A108" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B108" s="3" t="n">
         <v>0</v>
@@ -3954,7 +4733,7 @@
     </row>
     <row customHeight="1" ht="45" r="109" spans="1:3">
       <c r="A109" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B109" s="3" t="n">
         <v>0</v>
@@ -3963,7 +4742,7 @@
     </row>
     <row customHeight="1" ht="45" r="110" spans="1:3">
       <c r="A110" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B110" s="3" t="n">
         <v>0</v>
@@ -3972,7 +4751,7 @@
     </row>
     <row customHeight="1" ht="45" r="111" spans="1:3">
       <c r="A111" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B111" s="12" t="n">
         <v>0</v>
@@ -3986,18 +4765,18 @@
     </row>
     <row customHeight="1" ht="45" r="113" spans="1:3">
       <c r="A113" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="114" spans="1:3">
       <c r="A114" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B114" s="3" t="n">
         <v>1</v>
@@ -4008,7 +4787,7 @@
     </row>
     <row customHeight="1" ht="45" r="115" spans="1:3">
       <c r="A115" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B115" s="3" t="n">
         <v>0</v>
@@ -4017,7 +4796,7 @@
     </row>
     <row customHeight="1" ht="45" r="116" spans="1:3">
       <c r="A116" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B116" s="3" t="n">
         <v>0</v>
@@ -4026,7 +4805,7 @@
     </row>
     <row customHeight="1" ht="45" r="117" spans="1:3">
       <c r="A117" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B117" s="3" t="n">
         <v>0</v>
@@ -4035,7 +4814,7 @@
     </row>
     <row customHeight="1" ht="45" r="118" spans="1:3">
       <c r="A118" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B118" s="12" t="n">
         <v>0</v>
@@ -4049,18 +4828,18 @@
     </row>
     <row customHeight="1" ht="45" r="120" spans="1:3">
       <c r="A120" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="121" spans="1:3">
       <c r="A121" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B121" s="3" t="n">
         <v>1</v>
@@ -4071,7 +4850,7 @@
     </row>
     <row customHeight="1" ht="45" r="122" spans="1:3">
       <c r="A122" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B122" s="3" t="n">
         <v>-328256272</v>
@@ -4080,7 +4859,7 @@
     </row>
     <row customHeight="1" ht="45" r="123" spans="1:3">
       <c r="A123" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B123" s="3" t="n">
         <v>-332.392</v>
@@ -4089,7 +4868,7 @@
     </row>
     <row customHeight="1" ht="45" r="124" spans="1:3">
       <c r="A124" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B124" s="3" t="n">
         <v>0</v>
@@ -4098,7 +4877,7 @@
     </row>
     <row customHeight="1" ht="45" r="125" spans="1:3">
       <c r="A125" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B125" s="12" t="n">
         <v>4621266</v>
@@ -4112,21 +4891,21 @@
     </row>
     <row customHeight="1" ht="45" r="127" spans="1:3">
       <c r="A127" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="128" spans="1:3">
       <c r="A128" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="C128" s="9" t="n">
         <v/>
@@ -4134,7 +4913,7 @@
     </row>
     <row customHeight="1" ht="45" r="129" spans="1:3">
       <c r="A129" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B129" s="3" t="n">
         <v>0</v>
@@ -4143,7 +4922,7 @@
     </row>
     <row customHeight="1" ht="45" r="130" spans="1:3">
       <c r="A130" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B130" s="3" t="n">
         <v>0</v>
@@ -4152,7 +4931,7 @@
     </row>
     <row customHeight="1" ht="45" r="131" spans="1:3">
       <c r="A131" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B131" s="3" t="n">
         <v>0</v>
@@ -4161,7 +4940,7 @@
     </row>
     <row customHeight="1" ht="45" r="132" spans="1:3">
       <c r="A132" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B132" s="12" t="n">
         <v>0</v>
@@ -4175,21 +4954,21 @@
     </row>
     <row customHeight="1" ht="45" r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="135" spans="1:3">
       <c r="A135" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C135" s="9" t="n">
         <v/>
@@ -4197,25 +4976,25 @@
     </row>
     <row customHeight="1" ht="45" r="136" spans="1:3">
       <c r="A136" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="C136" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="137" spans="1:3">
       <c r="A137" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C137" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="138" spans="1:3">
       <c r="A138" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B138" s="3" t="n">
         <v>0</v>
@@ -4224,10 +5003,10 @@
     </row>
     <row customHeight="1" ht="45" r="139" spans="1:3">
       <c r="A139" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B139" s="12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C139" s="13" t="n"/>
     </row>
@@ -4238,21 +5017,21 @@
     </row>
     <row customHeight="1" ht="45" r="141" spans="1:3">
       <c r="A141" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="142" spans="1:3">
       <c r="A142" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="C142" s="9" t="n">
         <v/>
@@ -4260,25 +5039,25 @@
     </row>
     <row customHeight="1" ht="45" r="143" spans="1:3">
       <c r="A143" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="C143" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="144" spans="1:3">
       <c r="A144" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C144" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="145" spans="1:3">
       <c r="A145" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B145" s="3" t="n">
         <v>0</v>
@@ -4287,10 +5066,10 @@
     </row>
     <row customHeight="1" ht="45" r="146" spans="1:3">
       <c r="A146" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B146" s="12" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C146" s="13" t="n"/>
     </row>
@@ -4301,21 +5080,21 @@
     </row>
     <row customHeight="1" ht="45" r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="149" spans="1:3">
       <c r="A149" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B149" s="3" t="n">
-        <v>0.997</v>
+        <v>1</v>
       </c>
       <c r="C149" s="9" t="n">
         <v/>
@@ -4323,16 +5102,16 @@
     </row>
     <row customHeight="1" ht="45" r="150" spans="1:3">
       <c r="A150" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B150" s="3" t="n">
-        <v>-1</v>
+        <v>-19</v>
       </c>
       <c r="C150" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="151" spans="1:3">
       <c r="A151" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B151" s="3" t="n">
         <v>0</v>
@@ -4341,7 +5120,7 @@
     </row>
     <row customHeight="1" ht="45" r="152" spans="1:3">
       <c r="A152" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B152" s="3" t="n">
         <v>0</v>
@@ -4350,10 +5129,10 @@
     </row>
     <row customHeight="1" ht="45" r="153" spans="1:3">
       <c r="A153" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B153" s="12" t="n">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="C153" s="13" t="n"/>
     </row>
@@ -4364,21 +5143,21 @@
     </row>
     <row customHeight="1" ht="45" r="155" spans="1:3">
       <c r="A155" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="156" spans="1:3">
       <c r="A156" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B156" s="3" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C156" s="9" t="n">
         <v/>
@@ -4386,25 +5165,25 @@
     </row>
     <row customHeight="1" ht="45" r="157" spans="1:3">
       <c r="A157" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B157" s="3" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="C157" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="158" spans="1:3">
       <c r="A158" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B158" s="3" t="n">
-        <v>0</v>
+        <v>2.113</v>
       </c>
       <c r="C158" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="159" spans="1:3">
       <c r="A159" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B159" s="3" t="n">
         <v>0</v>
@@ -4413,10 +5192,10 @@
     </row>
     <row customHeight="1" ht="45" r="160" spans="1:3">
       <c r="A160" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B160" s="12" t="n">
-        <v>337</v>
+        <v>2311</v>
       </c>
       <c r="C160" s="13" t="n"/>
     </row>
@@ -4427,21 +5206,21 @@
     </row>
     <row customHeight="1" ht="45" r="162" spans="1:3">
       <c r="A162" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="163" spans="1:3">
       <c r="A163" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B163" s="3" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="C163" s="9" t="n">
         <v/>
@@ -4449,7 +5228,7 @@
     </row>
     <row customHeight="1" ht="45" r="164" spans="1:3">
       <c r="A164" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B164" s="3" t="n">
         <v>0</v>
@@ -4458,16 +5237,16 @@
     </row>
     <row customHeight="1" ht="45" r="165" spans="1:3">
       <c r="A165" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B165" s="3" t="n">
-        <v>2.113</v>
+        <v>0</v>
       </c>
       <c r="C165" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="166" spans="1:3">
       <c r="A166" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B166" s="3" t="n">
         <v>0</v>
@@ -4476,10 +5255,10 @@
     </row>
     <row customHeight="1" ht="45" r="167" spans="1:3">
       <c r="A167" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B167" s="12" t="n">
-        <v>2311</v>
+        <v>0</v>
       </c>
       <c r="C167" s="13" t="n"/>
     </row>
@@ -4490,18 +5269,18 @@
     </row>
     <row customHeight="1" ht="45" r="169" spans="1:3">
       <c r="A169" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="170" spans="1:3">
       <c r="A170" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B170" s="3" t="n">
         <v>1</v>
@@ -4512,16 +5291,16 @@
     </row>
     <row customHeight="1" ht="45" r="171" spans="1:3">
       <c r="A171" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B171" s="3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C171" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="172" spans="1:3">
       <c r="A172" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B172" s="3" t="n">
         <v>0</v>
@@ -4530,7 +5309,7 @@
     </row>
     <row customHeight="1" ht="45" r="173" spans="1:3">
       <c r="A173" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B173" s="3" t="n">
         <v>0</v>
@@ -4539,10 +5318,10 @@
     </row>
     <row customHeight="1" ht="45" r="174" spans="1:3">
       <c r="A174" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B174" s="12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C174" s="13" t="n"/>
     </row>
@@ -4553,21 +5332,21 @@
     </row>
     <row customHeight="1" ht="45" r="176" spans="1:3">
       <c r="A176" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="177" spans="1:3">
       <c r="A177" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B177" s="3" t="n">
-        <v>1</v>
+        <v>0.982</v>
       </c>
       <c r="C177" s="9" t="n">
         <v/>
@@ -4575,37 +5354,37 @@
     </row>
     <row customHeight="1" ht="45" r="178" spans="1:3">
       <c r="A178" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B178" s="3" t="n">
-        <v>-3</v>
+        <v>-69496662</v>
       </c>
       <c r="C178" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="179" spans="1:3">
       <c r="A179" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B179" s="3" t="n">
-        <v>0</v>
+        <v>6260.971</v>
       </c>
       <c r="C179" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="180" spans="1:3">
       <c r="A180" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B180" s="3" t="n">
-        <v>0</v>
+        <v>1897</v>
       </c>
       <c r="C180" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="181" spans="1:3">
       <c r="A181" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B181" s="12" t="n">
-        <v>4</v>
+        <v>150100000</v>
       </c>
       <c r="C181" s="13" t="n"/>
     </row>
@@ -4616,21 +5395,21 @@
     </row>
     <row customHeight="1" ht="45" r="183" spans="1:3">
       <c r="A183" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="184" spans="1:3">
       <c r="A184" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B184" s="3" t="n">
-        <v>0.982</v>
+        <v>0.972</v>
       </c>
       <c r="C184" s="9" t="n">
         <v/>
@@ -4638,37 +5417,37 @@
     </row>
     <row customHeight="1" ht="45" r="185" spans="1:3">
       <c r="A185" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B185" s="3" t="n">
-        <v>-69496662</v>
+        <v>-69475171</v>
       </c>
       <c r="C185" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="186" spans="1:3">
       <c r="A186" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B186" s="3" t="n">
-        <v>6260.971</v>
+        <v>21650.771</v>
       </c>
       <c r="C186" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="187" spans="1:3">
       <c r="A187" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B187" s="3" t="n">
-        <v>1897</v>
+        <v>4732</v>
       </c>
       <c r="C187" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="188" spans="1:3">
       <c r="A188" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B188" s="12" t="n">
-        <v>150100000</v>
+        <v>151104082</v>
       </c>
       <c r="C188" s="13" t="n"/>
     </row>
@@ -4679,21 +5458,21 @@
     </row>
     <row customHeight="1" ht="45" r="190" spans="1:3">
       <c r="A190" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="191" spans="1:3">
       <c r="A191" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B191" s="3" t="n">
-        <v>0.972</v>
+        <v>0.968</v>
       </c>
       <c r="C191" s="9" t="n">
         <v/>
@@ -4701,37 +5480,37 @@
     </row>
     <row customHeight="1" ht="45" r="192" spans="1:3">
       <c r="A192" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B192" s="3" t="n">
-        <v>-69475171</v>
+        <v>-7192206</v>
       </c>
       <c r="C192" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="193" spans="1:3">
       <c r="A193" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B193" s="3" t="n">
-        <v>21650.771</v>
+        <v>15264.364</v>
       </c>
       <c r="C193" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="194" spans="1:3">
       <c r="A194" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B194" s="3" t="n">
-        <v>4732</v>
+        <v>2533</v>
       </c>
       <c r="C194" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="195" spans="1:3">
       <c r="A195" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B195" s="12" t="n">
-        <v>151104082</v>
+        <v>55138070</v>
       </c>
       <c r="C195" s="13" t="n"/>
     </row>
@@ -4742,21 +5521,21 @@
     </row>
     <row customHeight="1" ht="45" r="197" spans="1:3">
       <c r="A197" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="198" spans="1:3">
       <c r="A198" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B198" s="3" t="n">
-        <v>0.968</v>
+        <v>0.997</v>
       </c>
       <c r="C198" s="9" t="n">
         <v/>
@@ -4764,37 +5543,37 @@
     </row>
     <row customHeight="1" ht="45" r="199" spans="1:3">
       <c r="A199" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B199" s="3" t="n">
-        <v>-7192206</v>
+        <v>-285449.72</v>
       </c>
       <c r="C199" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="200" spans="1:3">
       <c r="A200" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B200" s="3" t="n">
-        <v>15264.364</v>
+        <v>13.512</v>
       </c>
       <c r="C200" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="201" spans="1:3">
       <c r="A201" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B201" s="3" t="n">
-        <v>2533</v>
+        <v>0</v>
       </c>
       <c r="C201" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="202" spans="1:3">
       <c r="A202" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B202" s="12" t="n">
-        <v>55138070</v>
+        <v>1725368.14</v>
       </c>
       <c r="C202" s="13" t="n"/>
     </row>
@@ -4805,21 +5584,21 @@
     </row>
     <row customHeight="1" ht="45" r="204" spans="1:3">
       <c r="A204" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="205" spans="1:3">
       <c r="A205" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B205" s="3" t="n">
-        <v>0.997</v>
+        <v>1</v>
       </c>
       <c r="C205" s="9" t="n">
         <v/>
@@ -4827,25 +5606,25 @@
     </row>
     <row customHeight="1" ht="45" r="206" spans="1:3">
       <c r="A206" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B206" s="3" t="n">
-        <v>-285449.72</v>
+        <v>0</v>
       </c>
       <c r="C206" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="207" spans="1:3">
       <c r="A207" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B207" s="3" t="n">
-        <v>13.512</v>
+        <v>0</v>
       </c>
       <c r="C207" s="10" t="n"/>
     </row>
     <row customHeight="1" ht="45" r="208" spans="1:3">
       <c r="A208" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B208" s="3" t="n">
         <v>0</v>
@@ -4854,10 +5633,10 @@
     </row>
     <row customHeight="1" ht="45" r="209" spans="1:3">
       <c r="A209" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B209" s="12" t="n">
-        <v>1725368.14</v>
+        <v>0</v>
       </c>
       <c r="C209" s="13" t="n"/>
     </row>
@@ -4866,71 +5645,8 @@
       <c r="B210" s="14" t="n"/>
       <c r="C210" s="14" t="n"/>
     </row>
-    <row customHeight="1" ht="45" r="211" spans="1:3">
-      <c r="A211" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="212" spans="1:3">
-      <c r="A212" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B212" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C212" s="9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="213" spans="1:3">
-      <c r="A213" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B213" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C213" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="45" r="214" spans="1:3">
-      <c r="A214" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B214" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C214" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="45" r="215" spans="1:3">
-      <c r="A215" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B215" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C215" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="45" r="216" spans="1:3">
-      <c r="A216" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B216" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C216" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="45" r="217" spans="1:3">
-      <c r="A217" s="14" t="s"/>
-      <c r="B217" s="14" t="n"/>
-      <c r="C217" s="14" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="30">
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C16:C20"/>
@@ -4961,10 +5677,9 @@
     <mergeCell ref="C191:C195"/>
     <mergeCell ref="C198:C202"/>
     <mergeCell ref="C205:C209"/>
-    <mergeCell ref="C212:C216"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4974,7 +5689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B208"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,22 +5697,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="1" min="1" width="24"/>
     <col customWidth="1" max="2" min="2" width="37.5"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="25" r="0" spans="1:2"/>
     <row customHeight="1" ht="25" r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="15" t="n">
         <v>0.998</v>
@@ -5005,15 +5720,15 @@
     </row>
     <row customHeight="1" ht="25" r="3" spans="1:2">
       <c r="A3" s="16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B4" s="15" t="n">
         <v>4183</v>
@@ -5021,7 +5736,7 @@
     </row>
     <row customHeight="1" ht="25" r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B5" s="15" t="n">
         <v>1875</v>
@@ -5029,7 +5744,7 @@
     </row>
     <row customHeight="1" ht="25" r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" s="15" t="n">
         <v>382</v>
@@ -5037,7 +5752,7 @@
     </row>
     <row customHeight="1" ht="25" r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B7" s="15" t="n">
         <v>51</v>
@@ -5045,7 +5760,7 @@
     </row>
     <row customHeight="1" ht="25" r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B8" s="15" t="n">
         <v>20</v>
@@ -5053,7 +5768,7 @@
     </row>
     <row customHeight="1" ht="25" r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B9" s="15" t="n">
         <v>12</v>
@@ -5061,7 +5776,7 @@
     </row>
     <row customHeight="1" ht="25" r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B10" s="15" t="n">
         <v>1</v>
@@ -5069,7 +5784,7 @@
     </row>
     <row customHeight="1" ht="25" r="11" spans="1:2">
       <c r="A11" s="11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B11" s="18" t="n">
         <v>1</v>
@@ -5081,15 +5796,15 @@
     </row>
     <row customHeight="1" ht="25" r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="14" spans="1:2">
       <c r="A14" s="11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" s="18" t="n">
         <v>1</v>
@@ -5101,15 +5816,15 @@
     </row>
     <row customHeight="1" ht="25" r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="17" spans="1:2">
       <c r="A17" s="11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" s="18" t="n">
         <v>1</v>
@@ -5121,15 +5836,15 @@
     </row>
     <row customHeight="1" ht="25" r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" s="15" t="n">
         <v>0.354</v>
@@ -5137,15 +5852,15 @@
     </row>
     <row customHeight="1" ht="25" r="21" spans="1:2">
       <c r="A21" s="16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B22" s="15" t="n">
         <v>561332</v>
@@ -5153,7 +5868,7 @@
     </row>
     <row customHeight="1" ht="25" r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B23" s="15" t="n">
         <v>501868</v>
@@ -5161,7 +5876,7 @@
     </row>
     <row customHeight="1" ht="25" r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B24" s="15" t="n">
         <v>444825</v>
@@ -5169,7 +5884,7 @@
     </row>
     <row customHeight="1" ht="25" r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B25" s="15" t="n">
         <v>189021</v>
@@ -5177,7 +5892,7 @@
     </row>
     <row customHeight="1" ht="25" r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B26" s="15" t="n">
         <v>106901</v>
@@ -5185,7 +5900,7 @@
     </row>
     <row customHeight="1" ht="25" r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B27" s="15" t="n">
         <v>69212</v>
@@ -5193,7 +5908,7 @@
     </row>
     <row customHeight="1" ht="25" r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B28" s="15" t="n">
         <v>28479</v>
@@ -5201,7 +5916,7 @@
     </row>
     <row customHeight="1" ht="25" r="29" spans="1:2">
       <c r="A29" s="8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B29" s="15" t="n">
         <v>17800</v>
@@ -5209,7 +5924,7 @@
     </row>
     <row customHeight="1" ht="25" r="30" spans="1:2">
       <c r="A30" s="8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B30" s="15" t="n">
         <v>2907</v>
@@ -5217,7 +5932,7 @@
     </row>
     <row customHeight="1" ht="25" r="31" spans="1:2">
       <c r="A31" s="11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B31" s="18" t="n">
         <v>1481</v>
@@ -5229,678 +5944,690 @@
     </row>
     <row customHeight="1" ht="25" r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="34" spans="1:2">
-      <c r="A34" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="18" t="n">
-        <v>1</v>
+      <c r="A34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="15" t="n">
+        <v>0.995</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="35" spans="1:2">
-      <c r="A35" s="14" t="s"/>
-      <c r="B35" s="14" t="n"/>
+      <c r="A35" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>23</v>
+      <c r="A36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="15" t="n">
+        <v>6000</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="37" spans="1:2">
       <c r="A37" s="8" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="B37" s="15" t="n">
-        <v>0.995</v>
+        <v>4480</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="38" spans="1:2">
-      <c r="A38" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>88</v>
+      <c r="A38" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="15" t="n">
+        <v>2621</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="39" spans="1:2">
       <c r="A39" s="8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B39" s="15" t="n">
-        <v>6000</v>
+        <v>957</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="40" spans="1:2">
       <c r="A40" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B40" s="15" t="n">
-        <v>4480</v>
+        <v>245</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="41" spans="1:2">
-      <c r="A41" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="15" t="n">
-        <v>2621</v>
+      <c r="A41" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="18" t="n">
+        <v>66</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="42" spans="1:2">
-      <c r="A42" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="15" t="n">
-        <v>957</v>
-      </c>
+      <c r="A42" s="14" t="s"/>
+      <c r="B42" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="43" spans="1:2">
-      <c r="A43" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="15" t="n">
-        <v>245</v>
+      <c r="A43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="44" spans="1:2">
-      <c r="A44" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="18" t="n">
-        <v>66</v>
+      <c r="A44" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="15" t="n">
+        <v>0.979</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="45" spans="1:2">
-      <c r="A45" s="14" t="s"/>
-      <c r="B45" s="14" t="n"/>
+      <c r="A45" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>28</v>
+      <c r="A46" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="15" t="n">
+        <v>50932</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="47" spans="1:2">
       <c r="A47" s="8" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="B47" s="15" t="n">
-        <v>0.993</v>
+        <v>11980</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="48" spans="1:2">
-      <c r="A48" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>88</v>
+      <c r="A48" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="15" t="n">
+        <v>412</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="49" spans="1:2">
       <c r="A49" s="8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B49" s="15" t="n">
-        <v>20148</v>
+        <v>356</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="50" spans="1:2">
-      <c r="A50" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B50" s="18" t="n">
-        <v>1196</v>
+      <c r="A50" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="15" t="n">
+        <v>205</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="51" spans="1:2">
-      <c r="A51" s="14" t="s"/>
-      <c r="B51" s="14" t="n"/>
+      <c r="A51" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="15" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="52" spans="1:2">
-      <c r="A52" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>29</v>
+      <c r="A52" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="53" spans="1:2">
       <c r="A53" s="8" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="B53" s="15" t="n">
-        <v>0.979</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="54" spans="1:2">
-      <c r="A54" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>88</v>
+      <c r="A54" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="55" spans="1:2">
-      <c r="A55" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="15" t="n">
-        <v>50932</v>
+      <c r="A55" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="56" spans="1:2">
-      <c r="A56" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="15" t="n">
-        <v>11980</v>
-      </c>
+      <c r="A56" s="14" t="s"/>
+      <c r="B56" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="57" spans="1:2">
-      <c r="A57" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="15" t="n">
-        <v>412</v>
+      <c r="A57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="58" spans="1:2">
       <c r="A58" s="8" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="B58" s="15" t="n">
-        <v>356</v>
+        <v>0.993</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="59" spans="1:2">
-      <c r="A59" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59" s="15" t="n">
-        <v>205</v>
+      <c r="A59" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="60" spans="1:2">
       <c r="A60" s="8" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B60" s="15" t="n">
-        <v>166</v>
+        <v>4078</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="61" spans="1:2">
       <c r="A61" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B61" s="15" t="n">
-        <v>7</v>
+        <v>1335</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="62" spans="1:2">
       <c r="A62" s="8" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B62" s="15" t="n">
-        <v>3</v>
+        <v>1228</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="63" spans="1:2">
       <c r="A63" s="8" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B63" s="15" t="n">
-        <v>1</v>
+        <v>1149</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="64" spans="1:2">
-      <c r="A64" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="18" t="n">
-        <v>1</v>
+      <c r="A64" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="15" t="n">
+        <v>654</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="65" spans="1:2">
-      <c r="A65" s="14" t="s"/>
-      <c r="B65" s="14" t="n"/>
+      <c r="A65" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="15" t="n">
+        <v>587</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="66" spans="1:2">
-      <c r="A66" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>36</v>
+      <c r="A66" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="15" t="n">
+        <v>584</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="67" spans="1:2">
       <c r="A67" s="8" t="s">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="B67" s="15" t="n">
-        <v>0.993</v>
+        <v>540</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="68" spans="1:2">
-      <c r="A68" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>88</v>
+      <c r="A68" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="15" t="n">
+        <v>457</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="69" spans="1:2">
-      <c r="A69" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" s="15" t="n">
-        <v>20169</v>
+      <c r="A69" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="18" t="n">
+        <v>432</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="70" spans="1:2">
-      <c r="A70" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" s="18" t="n">
-        <v>236</v>
-      </c>
+      <c r="A70" s="14" t="s"/>
+      <c r="B70" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="71" spans="1:2">
-      <c r="A71" s="14" t="s"/>
-      <c r="B71" s="14" t="n"/>
+      <c r="A71" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="72" spans="1:2">
-      <c r="A72" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>37</v>
+      <c r="A72" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="15" t="n">
+        <v>0.994</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="73" spans="1:2">
-      <c r="A73" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="18" t="n">
-        <v>1</v>
+      <c r="A73" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="74" spans="1:2">
-      <c r="A74" s="14" t="s"/>
-      <c r="B74" s="14" t="n"/>
+      <c r="A74" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="15" t="n">
+        <v>4713</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="75" spans="1:2">
-      <c r="A75" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>38</v>
+      <c r="A75" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="15" t="n">
+        <v>4100</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="76" spans="1:2">
       <c r="A76" s="8" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="B76" s="15" t="n">
-        <v>0.993</v>
+        <v>1136</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="77" spans="1:2">
-      <c r="A77" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>88</v>
+      <c r="A77" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" s="15" t="n">
+        <v>911</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="78" spans="1:2">
       <c r="A78" s="8" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="B78" s="15" t="n">
-        <v>21395</v>
+        <v>851</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="79" spans="1:2">
-      <c r="A79" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" s="18" t="n">
-        <v>959</v>
+      <c r="A79" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="15" t="n">
+        <v>798</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="80" spans="1:2">
-      <c r="A80" s="14" t="s"/>
-      <c r="B80" s="14" t="n"/>
+      <c r="A80" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="15" t="n">
+        <v>682</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="81" spans="1:2">
-      <c r="A81" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>39</v>
+      <c r="A81" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="15" t="n">
+        <v>642</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="82" spans="1:2">
       <c r="A82" s="8" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="B82" s="15" t="n">
-        <v>0.993</v>
+        <v>601</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="83" spans="1:2">
-      <c r="A83" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>88</v>
+      <c r="A83" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="18" t="n">
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="84" spans="1:2">
-      <c r="A84" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B84" s="15" t="n">
-        <v>4078</v>
-      </c>
+      <c r="A84" s="14" t="s"/>
+      <c r="B84" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="85" spans="1:2">
-      <c r="A85" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B85" s="15" t="n">
-        <v>1335</v>
+      <c r="A85" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="86" spans="1:2">
       <c r="A86" s="8" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="B86" s="15" t="n">
-        <v>1228</v>
+        <v>0.997</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="87" spans="1:2">
-      <c r="A87" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B87" s="15" t="n">
-        <v>1149</v>
+      <c r="A87" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="88" spans="1:2">
       <c r="A88" s="8" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B88" s="15" t="n">
-        <v>654</v>
+        <v>313</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="89" spans="1:2">
       <c r="A89" s="8" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B89" s="15" t="n">
-        <v>587</v>
+        <v>262</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="90" spans="1:2">
       <c r="A90" s="8" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="B90" s="15" t="n">
-        <v>584</v>
+        <v>256</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="91" spans="1:2">
       <c r="A91" s="8" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B91" s="15" t="n">
-        <v>540</v>
+        <v>209</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="92" spans="1:2">
       <c r="A92" s="8" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B92" s="15" t="n">
-        <v>457</v>
+        <v>182</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="93" spans="1:2">
-      <c r="A93" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B93" s="18" t="n">
-        <v>432</v>
+      <c r="A93" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" s="15" t="n">
+        <v>180</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="94" spans="1:2">
-      <c r="A94" s="14" t="s"/>
-      <c r="B94" s="14" t="n"/>
+      <c r="A94" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" s="15" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="95" spans="1:2">
-      <c r="A95" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>40</v>
+      <c r="A95" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" s="15" t="n">
+        <v>147</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="96" spans="1:2">
       <c r="A96" s="8" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B96" s="15" t="n">
-        <v>0.994</v>
+        <v>144</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="97" spans="1:2">
-      <c r="A97" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>88</v>
+      <c r="A97" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" s="18" t="n">
+        <v>135</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="98" spans="1:2">
-      <c r="A98" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B98" s="15" t="n">
-        <v>4713</v>
-      </c>
+      <c r="A98" s="14" t="s"/>
+      <c r="B98" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="99" spans="1:2">
-      <c r="A99" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B99" s="15" t="n">
-        <v>4100</v>
+      <c r="A99" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="100" spans="1:2">
       <c r="A100" s="8" t="s">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="B100" s="15" t="n">
-        <v>1136</v>
+        <v>0.998</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="101" spans="1:2">
-      <c r="A101" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B101" s="15" t="n">
-        <v>911</v>
+      <c r="A101" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="102" spans="1:2">
       <c r="A102" s="8" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="B102" s="15" t="n">
-        <v>851</v>
+        <v>1117</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="103" spans="1:2">
       <c r="A103" s="8" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B103" s="15" t="n">
-        <v>798</v>
+        <v>1060</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="104" spans="1:2">
       <c r="A104" s="8" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B104" s="15" t="n">
-        <v>682</v>
+        <v>588</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="105" spans="1:2">
       <c r="A105" s="8" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B105" s="15" t="n">
-        <v>642</v>
+        <v>390</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="106" spans="1:2">
       <c r="A106" s="8" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B106" s="15" t="n">
-        <v>601</v>
+        <v>187</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="107" spans="1:2">
-      <c r="A107" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B107" s="18" t="n">
-        <v>600</v>
+      <c r="A107" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="15" t="n">
+        <v>156</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="108" spans="1:2">
-      <c r="A108" s="14" t="s"/>
-      <c r="B108" s="14" t="n"/>
+      <c r="A108" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" s="15" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="109" spans="1:2">
-      <c r="A109" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>41</v>
+      <c r="A109" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B109" s="15" t="n">
+        <v>108</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="110" spans="1:2">
       <c r="A110" s="8" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="B110" s="15" t="n">
-        <v>0.997</v>
+        <v>96</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="111" spans="1:2">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="18" t="n">
         <v>87</v>
       </c>
-      <c r="B111" s="17" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row customHeight="1" ht="25" r="112" spans="1:2">
-      <c r="A112" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B112" s="15" t="n">
-        <v>313</v>
-      </c>
+      <c r="A112" s="14" t="s"/>
+      <c r="B112" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="113" spans="1:2">
-      <c r="A113" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B113" s="15" t="n">
-        <v>262</v>
+      <c r="A113" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="114" spans="1:2">
       <c r="A114" s="8" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="B114" s="15" t="n">
-        <v>256</v>
+        <v>0.995</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="115" spans="1:2">
-      <c r="A115" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B115" s="15" t="n">
-        <v>209</v>
+      <c r="A115" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="116" spans="1:2">
       <c r="A116" s="8" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B116" s="15" t="n">
-        <v>182</v>
+        <v>6000</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="117" spans="1:2">
       <c r="A117" s="8" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B117" s="15" t="n">
-        <v>180</v>
+        <v>4480</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="118" spans="1:2">
       <c r="A118" s="8" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B118" s="15" t="n">
-        <v>156</v>
+        <v>2621</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="119" spans="1:2">
       <c r="A119" s="8" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B119" s="15" t="n">
-        <v>147</v>
+        <v>957</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="120" spans="1:2">
       <c r="A120" s="8" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B120" s="15" t="n">
-        <v>144</v>
+        <v>245</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="121" spans="1:2">
       <c r="A121" s="11" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B121" s="18" t="n">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="122" spans="1:2">
@@ -5909,106 +6636,106 @@
     </row>
     <row customHeight="1" ht="25" r="123" spans="1:2">
       <c r="A123" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="124" spans="1:2">
       <c r="A124" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B124" s="15" t="n">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="125" spans="1:2">
       <c r="A125" s="16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="126" spans="1:2">
       <c r="A126" s="8" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="B126" s="15" t="n">
-        <v>1117</v>
+        <v>359</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="127" spans="1:2">
       <c r="A127" s="8" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B127" s="15" t="n">
-        <v>1060</v>
+        <v>239</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="128" spans="1:2">
       <c r="A128" s="8" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="B128" s="15" t="n">
-        <v>588</v>
+        <v>208</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="129" spans="1:2">
       <c r="A129" s="8" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B129" s="15" t="n">
-        <v>390</v>
+        <v>110</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="130" spans="1:2">
       <c r="A130" s="8" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B130" s="15" t="n">
-        <v>187</v>
+        <v>106</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="131" spans="1:2">
       <c r="A131" s="8" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B131" s="15" t="n">
-        <v>156</v>
+        <v>104</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="132" spans="1:2">
       <c r="A132" s="8" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B132" s="15" t="n">
-        <v>124</v>
+        <v>89</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="133" spans="1:2">
       <c r="A133" s="8" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B133" s="15" t="n">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="134" spans="1:2">
       <c r="A134" s="8" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B134" s="15" t="n">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="135" spans="1:2">
       <c r="A135" s="11" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B135" s="18" t="n">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="136" spans="1:2">
@@ -6017,685 +6744,414 @@
     </row>
     <row customHeight="1" ht="25" r="137" spans="1:2">
       <c r="A137" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="138" spans="1:2">
       <c r="A138" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B138" s="15" t="n">
-        <v>0.995</v>
+        <v>0.998</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="139" spans="1:2">
       <c r="A139" s="16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="140" spans="1:2">
       <c r="A140" s="8" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B140" s="15" t="n">
-        <v>6000</v>
+        <v>567</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="141" spans="1:2">
       <c r="A141" s="8" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B141" s="15" t="n">
-        <v>4480</v>
+        <v>299</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="142" spans="1:2">
       <c r="A142" s="8" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="B142" s="15" t="n">
-        <v>2621</v>
+        <v>238</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="143" spans="1:2">
       <c r="A143" s="8" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B143" s="15" t="n">
-        <v>957</v>
+        <v>230</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="144" spans="1:2">
       <c r="A144" s="8" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B144" s="15" t="n">
-        <v>245</v>
+        <v>210</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="145" spans="1:2">
-      <c r="A145" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B145" s="18" t="n">
-        <v>66</v>
+      <c r="A145" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B145" s="15" t="n">
+        <v>208</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="146" spans="1:2">
-      <c r="A146" s="14" t="s"/>
-      <c r="B146" s="14" t="n"/>
+      <c r="A146" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B146" s="15" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="147" spans="1:2">
-      <c r="A147" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>45</v>
+      <c r="A147" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B147" s="15" t="n">
+        <v>147</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="148" spans="1:2">
       <c r="A148" s="8" t="s">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="B148" s="15" t="n">
-        <v>0.999</v>
+        <v>134</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="149" spans="1:2">
-      <c r="A149" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B149" s="17" t="s">
-        <v>88</v>
+      <c r="A149" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B149" s="18" t="n">
+        <v>129</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="150" spans="1:2">
-      <c r="A150" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B150" s="15" t="n">
-        <v>359</v>
-      </c>
+      <c r="A150" s="14" t="s"/>
+      <c r="B150" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="151" spans="1:2">
-      <c r="A151" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B151" s="15" t="n">
-        <v>239</v>
+      <c r="A151" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="152" spans="1:2">
-      <c r="A152" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B152" s="15" t="n">
-        <v>208</v>
+      <c r="A152" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="153" spans="1:2">
-      <c r="A153" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B153" s="15" t="n">
-        <v>110</v>
-      </c>
+      <c r="A153" s="14" t="s"/>
+      <c r="B153" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="154" spans="1:2">
-      <c r="A154" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B154" s="15" t="n">
-        <v>106</v>
+      <c r="A154" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="155" spans="1:2">
       <c r="A155" s="8" t="s">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="B155" s="15" t="n">
-        <v>104</v>
+        <v>0.994</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="156" spans="1:2">
-      <c r="A156" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B156" s="15" t="n">
-        <v>89</v>
+      <c r="A156" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="157" spans="1:2">
       <c r="A157" s="8" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="B157" s="15" t="n">
-        <v>89</v>
+        <v>5874</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="158" spans="1:2">
       <c r="A158" s="8" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="B158" s="15" t="n">
-        <v>56</v>
+        <v>2828</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="159" spans="1:2">
-      <c r="A159" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B159" s="18" t="n">
-        <v>53</v>
+      <c r="A159" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B159" s="15" t="n">
+        <v>951</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="160" spans="1:2">
-      <c r="A160" s="14" t="s"/>
-      <c r="B160" s="14" t="n"/>
+      <c r="A160" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B160" s="15" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="161" spans="1:2">
-      <c r="A161" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>46</v>
+      <c r="A161" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B161" s="15" t="n">
+        <v>215</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="162" spans="1:2">
       <c r="A162" s="8" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="B162" s="15" t="n">
-        <v>0.998</v>
+        <v>215</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="163" spans="1:2">
-      <c r="A163" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B163" s="17" t="s">
-        <v>88</v>
+      <c r="A163" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B163" s="15" t="n">
+        <v>206</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="164" spans="1:2">
       <c r="A164" s="8" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B164" s="15" t="n">
-        <v>567</v>
+        <v>191</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="165" spans="1:2">
       <c r="A165" s="8" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B165" s="15" t="n">
-        <v>299</v>
+        <v>182</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="166" spans="1:2">
-      <c r="A166" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B166" s="15" t="n">
-        <v>238</v>
+      <c r="A166" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B166" s="18" t="n">
+        <v>163</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="167" spans="1:2">
-      <c r="A167" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B167" s="15" t="n">
-        <v>230</v>
-      </c>
+      <c r="A167" s="14" t="s"/>
+      <c r="B167" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="168" spans="1:2">
-      <c r="A168" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B168" s="15" t="n">
-        <v>210</v>
+      <c r="A168" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="169" spans="1:2">
       <c r="A169" s="8" t="s">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="B169" s="15" t="n">
-        <v>208</v>
+        <v>0.001</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="170" spans="1:2">
-      <c r="A170" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B170" s="15" t="n">
-        <v>182</v>
+      <c r="A170" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="171" spans="1:2">
       <c r="A171" s="8" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="B171" s="15" t="n">
-        <v>147</v>
+        <v>2967146</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="172" spans="1:2">
       <c r="A172" s="8" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B172" s="15" t="n">
-        <v>134</v>
+        <v>11438</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="173" spans="1:2">
-      <c r="A173" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B173" s="18" t="n">
-        <v>129</v>
+      <c r="A173" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B173" s="15" t="n">
+        <v>2932</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="174" spans="1:2">
-      <c r="A174" s="14" t="s"/>
-      <c r="B174" s="14" t="n"/>
+      <c r="A174" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B174" s="18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="175" spans="1:2">
-      <c r="A175" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="176" spans="1:2">
-      <c r="A176" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B176" s="18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="177" spans="1:2">
-      <c r="A177" s="14" t="s"/>
-      <c r="B177" s="14" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="178" spans="1:2">
-      <c r="A178" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="179" spans="1:2">
-      <c r="A179" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B179" s="18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="180" spans="1:2">
-      <c r="A180" s="14" t="s"/>
-      <c r="B180" s="14" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="181" spans="1:2">
-      <c r="A181" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="182" spans="1:2">
-      <c r="A182" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B182" s="15" t="n">
-        <v>0.994</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="183" spans="1:2">
-      <c r="A183" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B183" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="184" spans="1:2">
-      <c r="A184" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B184" s="15" t="n">
-        <v>5874</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="185" spans="1:2">
-      <c r="A185" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B185" s="15" t="n">
-        <v>2828</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="186" spans="1:2">
-      <c r="A186" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B186" s="15" t="n">
-        <v>951</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="187" spans="1:2">
-      <c r="A187" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B187" s="15" t="n">
-        <v>258</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="188" spans="1:2">
-      <c r="A188" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B188" s="15" t="n">
-        <v>215</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="189" spans="1:2">
-      <c r="A189" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B189" s="15" t="n">
-        <v>215</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="190" spans="1:2">
-      <c r="A190" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B190" s="15" t="n">
-        <v>206</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="191" spans="1:2">
-      <c r="A191" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B191" s="15" t="n">
-        <v>191</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="192" spans="1:2">
-      <c r="A192" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B192" s="15" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="193" spans="1:2">
-      <c r="A193" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B193" s="18" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="194" spans="1:2">
-      <c r="A194" s="14" t="s"/>
-      <c r="B194" s="14" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="195" spans="1:2">
-      <c r="A195" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="196" spans="1:2">
-      <c r="A196" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B196" s="18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="197" spans="1:2">
-      <c r="A197" s="14" t="s"/>
-      <c r="B197" s="14" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="198" spans="1:2">
-      <c r="A198" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="199" spans="1:2">
-      <c r="A199" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B199" s="15" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="200" spans="1:2">
-      <c r="A200" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B200" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="201" spans="1:2">
-      <c r="A201" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B201" s="15" t="n">
-        <v>2967146</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="202" spans="1:2">
-      <c r="A202" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B202" s="15" t="n">
-        <v>11438</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="203" spans="1:2">
-      <c r="A203" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B203" s="15" t="n">
-        <v>2932</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="204" spans="1:2">
-      <c r="A204" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B204" s="18" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="205" spans="1:2">
-      <c r="A205" s="14" t="s"/>
-      <c r="B205" s="14" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="206" spans="1:2">
-      <c r="A206" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="207" spans="1:2">
-      <c r="A207" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B207" s="18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="208" spans="1:2">
-      <c r="A208" s="14" t="s"/>
-      <c r="B208" s="14" t="n"/>
+      <c r="A175" s="14" t="s"/>
+      <c r="B175" s="14" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B11">
+  <conditionalFormatting sqref="B4:B11">
     <cfRule priority="1" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="4183"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B31">
+  <conditionalFormatting sqref="B22:B31">
     <cfRule priority="2" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="561332"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B44">
+  <conditionalFormatting sqref="B36:B41">
     <cfRule priority="3" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="6000"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:B50">
+  <conditionalFormatting sqref="B46:B55">
     <cfRule priority="4" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50932"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B64">
+  <conditionalFormatting sqref="B60:B69">
     <cfRule priority="5" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="4078"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68:B70">
+  <conditionalFormatting sqref="B74:B83">
     <cfRule priority="6" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="4713"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77:B79">
+  <conditionalFormatting sqref="B88:B97">
     <cfRule priority="7" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="313"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B93">
+  <conditionalFormatting sqref="B102:B111">
     <cfRule priority="8" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1117"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B97:B107">
+  <conditionalFormatting sqref="B116:B121">
     <cfRule priority="9" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="6000"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B111:B121">
+  <conditionalFormatting sqref="B126:B135">
     <cfRule priority="10" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="359"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125:B135">
+  <conditionalFormatting sqref="B140:B149">
     <cfRule priority="11" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="567"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B139:B145">
+  <conditionalFormatting sqref="B157:B166">
     <cfRule priority="12" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5874"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B149:B159">
+  <conditionalFormatting sqref="B171:B174">
     <cfRule priority="13" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="00F79646"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163:B173">
-    <cfRule priority="14" type="dataBar">
-      <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="00F79646"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B183:B193">
-    <cfRule priority="15" type="dataBar">
-      <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="00F79646"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B200:B204">
-    <cfRule priority="16" type="dataBar">
-      <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2967146"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
